--- a/NIST_CSF_Risk_CMM-2017.xlsx
+++ b/NIST_CSF_Risk_CMM-2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\btsfile1\InformationSecurity\Personnel\Brian\NIST-CSF_published\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/water/Documents/Sync/NIST-CSF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B89FCF8-5E2F-4626-B3EC-7084F960B285}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2347A17F-060E-FE4A-B4AF-39BEE95A1775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="435" windowWidth="31695" windowHeight="20565" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="31700" windowHeight="20560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cybersecurity" sheetId="7" r:id="rId1"/>
@@ -58,12 +58,12 @@
     <definedName name="Z_FE135D45_FEC9_45C5_B916_E812BDE860C8_.wvu.FilterData" localSheetId="1" hidden="1">'Guide - Index'!$C$9:$AD$136</definedName>
     <definedName name="Z_FE135D45_FEC9_45C5_B916_E812BDE860C8_.wvu.FilterData" localSheetId="2" hidden="1">'NIST Framework v1.1'!$C$3:$AE$135</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Musson, Dean - Personal View" guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="Scott, Josh - Personal View" guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1186" activeSheetId="1"/>
+    <customWorkbookView name="brian ventura - Personal View" guid="{FE135D45-FEC9-45C5-B916-E812BDE860C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1"/>
     <customWorkbookView name="Paidhrin, Christopher - Personal View" guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1"/>
-    <customWorkbookView name="brian ventura - Personal View" guid="{FE135D45-FEC9-45C5-B916-E812BDE860C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1"/>
-    <customWorkbookView name="Scott, Josh - Personal View" guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1186" activeSheetId="1"/>
-    <customWorkbookView name="Musson, Dean - Personal View" guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -72,12 +72,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="598">
   <si>
     <t>Function</t>
   </si>
@@ -1918,19 +1927,133 @@
     <t>4, 14, 18</t>
   </si>
   <si>
-    <t>4, 11-14, 16, 18</t>
-  </si>
-  <si>
-    <t>4, 14, 16, 18</t>
-  </si>
-  <si>
-    <t>4, 17</t>
-  </si>
-  <si>
-    <t>5, 8, 19</t>
-  </si>
-  <si>
-    <t>3, 19</t>
+    <t>CIS Controls</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 12, 14, 16</t>
+  </si>
+  <si>
+    <t>2, 16</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>14, 15, 17</t>
+  </si>
+  <si>
+    <t>15, 17</t>
+  </si>
+  <si>
+    <t>3, 7</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11, 15</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 6, 9, 12, 13, 15, 16</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 13, 15</t>
+  </si>
+  <si>
+    <t>4, 6, 12, 13</t>
+  </si>
+  <si>
+    <t>3, 5, 6</t>
+  </si>
+  <si>
+    <t>3, 9, 12, 13, 16</t>
+  </si>
+  <si>
+    <t>6, 12, 13</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 17</t>
+  </si>
+  <si>
+    <t>14, 16, 17</t>
+  </si>
+  <si>
+    <t>14, 16</t>
+  </si>
+  <si>
+    <t>1, 3, 11, 12, 16</t>
+  </si>
+  <si>
+    <t>3, 16</t>
+  </si>
+  <si>
+    <t>3, 12, 16</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 6, 7, 9, 11, 16, 17, 18</t>
+  </si>
+  <si>
+    <t>2, 4, 9, 16</t>
+  </si>
+  <si>
+    <t>16, 18</t>
+  </si>
+  <si>
+    <t>11, 17</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2, 3, 8, 10, 11, 13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3, 10</t>
+  </si>
+  <si>
+    <t>2,13</t>
+  </si>
+  <si>
+    <t>3, 8, 13</t>
+  </si>
+  <si>
+    <t>1, 2, 7, 8, 9, 10, 13, 15</t>
+  </si>
+  <si>
+    <t>8, 13</t>
+  </si>
+  <si>
+    <t>9, 10</t>
+  </si>
+  <si>
+    <t>1, 2, 9, 13</t>
+  </si>
+  <si>
+    <t>3, 8, 16, 17</t>
+  </si>
+  <si>
+    <t>8, 16</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -3108,12 +3231,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="404">
+  <cellXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4283,6 +4421,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11702,38 +11846,38 @@
       <selection activeCell="U10" sqref="U10:AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="263" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="6" customWidth="1"/>
-    <col min="10" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="33" customWidth="1"/>
-    <col min="13" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.28515625" customWidth="1"/>
-    <col min="21" max="32" width="4.7109375" customWidth="1"/>
-    <col min="33" max="33" width="2.7109375" customWidth="1"/>
-    <col min="34" max="34" width="23.42578125" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" customWidth="1"/>
-    <col min="37" max="37" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="263" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="33" customWidth="1"/>
+    <col min="13" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.33203125" customWidth="1"/>
+    <col min="21" max="32" width="4.6640625" customWidth="1"/>
+    <col min="33" max="33" width="2.6640625" customWidth="1"/>
+    <col min="34" max="34" width="23.5" customWidth="1"/>
+    <col min="35" max="35" width="18.5" customWidth="1"/>
+    <col min="36" max="36" width="15.33203125" customWidth="1"/>
+    <col min="37" max="37" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -11772,7 +11916,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="2:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:38" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="399" t="s">
         <v>333</v>
@@ -11821,7 +11965,7 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="2:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:38" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="397" t="s">
         <v>0</v>
@@ -11916,7 +12060,7 @@
       <c r="AK10" s="34"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="2:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:38" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="391" t="s">
         <v>374</v>
@@ -11975,7 +12119,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="2:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:38" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="393"/>
       <c r="D12" s="394"/>
@@ -12026,7 +12170,7 @@
       <c r="AG12" s="14"/>
       <c r="AH12" s="289"/>
     </row>
-    <row r="13" spans="2:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:38" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="393"/>
       <c r="D13" s="394"/>
@@ -12077,7 +12221,7 @@
       <c r="AG13" s="14"/>
       <c r="AI13" s="23"/>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="393"/>
       <c r="D14" s="394"/>
@@ -12129,7 +12273,7 @@
       <c r="AF14" s="284"/>
       <c r="AG14" s="14"/>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:38" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="393"/>
       <c r="D15" s="394"/>
@@ -12181,7 +12325,7 @@
       <c r="AF15" s="284"/>
       <c r="AG15" s="14"/>
     </row>
-    <row r="16" spans="2:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="395"/>
       <c r="D16" s="396"/>
@@ -12223,7 +12367,7 @@
       <c r="AF16" s="284"/>
       <c r="AG16" s="14"/>
     </row>
-    <row r="17" spans="1:36" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="80" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="365" t="s">
         <v>402</v>
@@ -12283,7 +12427,7 @@
       <c r="AF17" s="284"/>
       <c r="AG17" s="14"/>
     </row>
-    <row r="18" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="367"/>
       <c r="D18" s="368"/>
@@ -12338,7 +12482,7 @@
       <c r="AG18" s="14"/>
       <c r="AH18" s="23"/>
     </row>
-    <row r="19" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="367"/>
       <c r="D19" s="368"/>
@@ -12390,7 +12534,7 @@
       <c r="AF19" s="284"/>
       <c r="AG19" s="14"/>
     </row>
-    <row r="20" spans="1:36" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="367"/>
       <c r="D20" s="368"/>
@@ -12444,7 +12588,7 @@
       <c r="AI20" s="23"/>
       <c r="AJ20" s="23"/>
     </row>
-    <row r="21" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="367"/>
       <c r="D21" s="368"/>
@@ -12494,7 +12638,7 @@
       <c r="AF21" s="284"/>
       <c r="AG21" s="14"/>
     </row>
-    <row r="22" spans="1:36" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="369"/>
       <c r="D22" s="370"/>
@@ -12550,7 +12694,7 @@
       <c r="AF22" s="302"/>
       <c r="AG22" s="14"/>
     </row>
-    <row r="23" spans="1:36" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="371" t="s">
         <v>429</v>
@@ -12616,7 +12760,7 @@
       <c r="AF23" s="284"/>
       <c r="AG23" s="14"/>
     </row>
-    <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="373"/>
       <c r="D24" s="374"/>
@@ -12669,7 +12813,7 @@
       <c r="AG24" s="14"/>
       <c r="AH24" s="23"/>
     </row>
-    <row r="25" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="375"/>
       <c r="D25" s="376"/>
@@ -12721,7 +12865,7 @@
       <c r="AF25" s="284"/>
       <c r="AG25" s="14"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="377" t="s">
         <v>445</v>
@@ -12769,7 +12913,7 @@
       <c r="AF26" s="284"/>
       <c r="AG26" s="14"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="15"/>
       <c r="C27" s="379"/>
@@ -12816,7 +12960,7 @@
       <c r="AF27" s="284"/>
       <c r="AG27" s="14"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="15"/>
       <c r="C28" s="379"/>
@@ -12867,7 +13011,7 @@
       <c r="AF28" s="284"/>
       <c r="AG28" s="14"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="15"/>
       <c r="C29" s="379"/>
@@ -12918,7 +13062,7 @@
       <c r="AF29" s="284"/>
       <c r="AG29" s="14"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="381"/>
       <c r="D30" s="382"/>
@@ -12970,7 +13114,7 @@
       <c r="AF30" s="282"/>
       <c r="AG30" s="14"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="13"/>
       <c r="C31" s="383" t="s">
@@ -13027,7 +13171,7 @@
       <c r="AF31" s="284"/>
       <c r="AG31" s="14"/>
     </row>
-    <row r="32" spans="1:36" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="13"/>
       <c r="C32" s="385"/>
@@ -13078,7 +13222,7 @@
       <c r="AF32" s="284"/>
       <c r="AG32" s="14"/>
     </row>
-    <row r="33" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="13"/>
       <c r="C33" s="387"/>
@@ -13135,7 +13279,7 @@
       <c r="AF33" s="284"/>
       <c r="AG33" s="14"/>
     </row>
-    <row r="34" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -13170,7 +13314,7 @@
       <c r="AF34" s="20"/>
       <c r="AG34" s="22"/>
     </row>
-    <row r="35" spans="1:34" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13206,7 +13350,7 @@
       <c r="AG35" s="16"/>
       <c r="AH35" s="16"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13242,7 +13386,7 @@
       <c r="AG36" s="16"/>
       <c r="AH36" s="16"/>
     </row>
-    <row r="37" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13278,7 +13422,7 @@
       <c r="AG37" s="16"/>
       <c r="AH37" s="16"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13314,7 +13458,7 @@
       <c r="AG38" s="16"/>
       <c r="AH38" s="16"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -13350,31 +13494,31 @@
       <c r="AG39" s="16"/>
       <c r="AH39" s="16"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E40" s="18"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" s="389"/>
       <c r="D49" s="390"/>
       <c r="E49" s="364"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="389"/>
       <c r="D50" s="390"/>
       <c r="E50" s="364"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="389"/>
       <c r="D51" s="390"/>
       <c r="E51" s="364"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="389"/>
       <c r="D52" s="390"/>
       <c r="E52" s="364"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E53" s="364"/>
     </row>
   </sheetData>
@@ -13410,46 +13554,46 @@
       <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="79.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="116" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="14" width="13.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="79.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="116" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="14" width="13.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="10" style="33" customWidth="1"/>
-    <col min="17" max="20" width="16.7109375" style="242" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="23" width="10.7109375" style="156" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="10.7109375" style="233" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="12.28515625" style="148" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="10.7109375" customWidth="1"/>
-    <col min="31" max="31" width="2.28515625" customWidth="1"/>
-    <col min="32" max="32" width="52.5703125" customWidth="1"/>
+    <col min="17" max="20" width="16.6640625" style="242" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="23" width="10.6640625" style="156" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="10.6640625" style="233" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.33203125" style="148" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="10.6640625" customWidth="1"/>
+    <col min="31" max="31" width="2.33203125" customWidth="1"/>
+    <col min="32" max="32" width="52.5" customWidth="1"/>
     <col min="33" max="34" width="49" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="65.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" customWidth="1"/>
-    <col min="38" max="38" width="23.42578125" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" customWidth="1"/>
-    <col min="40" max="40" width="15.28515625" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" customWidth="1"/>
+    <col min="35" max="36" width="65.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" customWidth="1"/>
+    <col min="38" max="38" width="23.5" customWidth="1"/>
+    <col min="39" max="39" width="18.5" customWidth="1"/>
+    <col min="40" max="40" width="15.33203125" customWidth="1"/>
+    <col min="41" max="41" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -13492,7 +13636,7 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" spans="2:42" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:42" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="399" t="s">
         <v>333</v>
@@ -13539,7 +13683,7 @@
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
     </row>
-    <row r="10" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="168" t="s">
         <v>0</v>
@@ -13648,7 +13792,7 @@
       <c r="AO10" s="34"/>
       <c r="AP10" s="3"/>
     </row>
-    <row r="11" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="204"/>
       <c r="D11" s="211" t="s">
@@ -13755,7 +13899,7 @@
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="205"/>
       <c r="D12" s="68"/>
@@ -13833,7 +13977,7 @@
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
     </row>
-    <row r="13" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="205"/>
       <c r="D13" s="68"/>
@@ -13919,7 +14063,7 @@
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
     </row>
-    <row r="14" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="205"/>
       <c r="D14" s="68"/>
@@ -13999,7 +14143,7 @@
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
     </row>
-    <row r="15" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="205"/>
       <c r="D15" s="68"/>
@@ -14083,7 +14227,7 @@
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
     </row>
-    <row r="16" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="205"/>
       <c r="D16" s="68"/>
@@ -14153,7 +14297,7 @@
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
     </row>
-    <row r="17" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="205"/>
       <c r="D17" s="41"/>
@@ -14225,7 +14369,7 @@
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
     </row>
-    <row r="18" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="205"/>
       <c r="D18" s="211" t="s">
@@ -14316,7 +14460,7 @@
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
     </row>
-    <row r="19" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="205"/>
       <c r="D19" s="68"/>
@@ -14386,7 +14530,7 @@
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
     </row>
-    <row r="20" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="205"/>
       <c r="D20" s="68"/>
@@ -14456,7 +14600,7 @@
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
     </row>
-    <row r="21" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="205"/>
       <c r="D21" s="68"/>
@@ -14528,7 +14672,7 @@
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
     </row>
-    <row r="22" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="205"/>
       <c r="D22" s="68"/>
@@ -14598,7 +14742,7 @@
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
     </row>
-    <row r="23" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="205"/>
       <c r="D23" s="55"/>
@@ -14668,7 +14812,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
     </row>
-    <row r="24" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="206"/>
       <c r="D24" s="223" t="s">
@@ -14778,7 +14922,7 @@
       <c r="AK24" s="37"/>
       <c r="AM24" s="23"/>
     </row>
-    <row r="25" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="205"/>
       <c r="D25" s="59"/>
@@ -14856,7 +15000,7 @@
       <c r="AK25" s="37"/>
       <c r="AM25" s="23"/>
     </row>
-    <row r="26" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="205"/>
       <c r="D26" s="59"/>
@@ -14944,7 +15088,7 @@
       <c r="AK26" s="37"/>
       <c r="AM26" s="23"/>
     </row>
-    <row r="27" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="205"/>
       <c r="D27" s="59"/>
@@ -15020,7 +15164,7 @@
       <c r="AK27" s="37"/>
       <c r="AM27" s="23"/>
     </row>
-    <row r="28" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="205"/>
       <c r="D28" s="77"/>
@@ -15096,7 +15240,7 @@
       <c r="AK28" s="37"/>
       <c r="AM28" s="23"/>
     </row>
-    <row r="29" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="205"/>
       <c r="D29" s="211" t="s">
@@ -15198,7 +15342,7 @@
       </c>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="205"/>
       <c r="D30" s="68"/>
@@ -15269,7 +15413,7 @@
       <c r="AJ30" s="175"/>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="205"/>
       <c r="D31" s="68"/>
@@ -15342,7 +15486,7 @@
       <c r="AJ31" s="175"/>
       <c r="AK31" s="37"/>
     </row>
-    <row r="32" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="205"/>
       <c r="D32" s="68"/>
@@ -15411,7 +15555,7 @@
       <c r="AJ32" s="175"/>
       <c r="AK32" s="37"/>
     </row>
-    <row r="33" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="205"/>
       <c r="D33" s="68"/>
@@ -15488,7 +15632,7 @@
       </c>
       <c r="AK33" s="37"/>
     </row>
-    <row r="34" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="205"/>
       <c r="D34" s="68"/>
@@ -15555,7 +15699,7 @@
       <c r="AJ34" s="175"/>
       <c r="AK34" s="37"/>
     </row>
-    <row r="35" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="205"/>
       <c r="D35" s="41"/>
@@ -15632,7 +15776,7 @@
       </c>
       <c r="AK35" s="37"/>
     </row>
-    <row r="36" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="205"/>
       <c r="D36" s="223" t="s">
@@ -15729,7 +15873,7 @@
       </c>
       <c r="AK36" s="37"/>
     </row>
-    <row r="37" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="205"/>
       <c r="D37" s="59"/>
@@ -15804,7 +15948,7 @@
       </c>
       <c r="AK37" s="37"/>
     </row>
-    <row r="38" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="205"/>
       <c r="D38" s="59"/>
@@ -15879,7 +16023,7 @@
       </c>
       <c r="AK38" s="37"/>
     </row>
-    <row r="39" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="207"/>
       <c r="D39" s="84"/>
@@ -15944,7 +16088,7 @@
       <c r="AJ39" s="174"/>
       <c r="AK39" s="37"/>
     </row>
-    <row r="40" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="205"/>
       <c r="D40" s="223" t="s">
@@ -16041,7 +16185,7 @@
       </c>
       <c r="AK40" s="37"/>
     </row>
-    <row r="41" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="205"/>
       <c r="D41" s="59"/>
@@ -16116,7 +16260,7 @@
       </c>
       <c r="AK41" s="37"/>
     </row>
-    <row r="42" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="205"/>
       <c r="D42" s="59"/>
@@ -16191,7 +16335,7 @@
       </c>
       <c r="AK42" s="37"/>
     </row>
-    <row r="43" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="205"/>
       <c r="D43" s="59"/>
@@ -16266,7 +16410,7 @@
       </c>
       <c r="AK43" s="37"/>
     </row>
-    <row r="44" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="205"/>
       <c r="D44" s="59"/>
@@ -16341,7 +16485,7 @@
       </c>
       <c r="AK44" s="37"/>
     </row>
-    <row r="45" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="207"/>
       <c r="D45" s="84"/>
@@ -16406,7 +16550,7 @@
       <c r="AJ45" s="174"/>
       <c r="AK45" s="37"/>
     </row>
-    <row r="46" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="204"/>
       <c r="D46" s="211" t="s">
@@ -16507,7 +16651,7 @@
       </c>
       <c r="AK46" s="37"/>
     </row>
-    <row r="47" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="205"/>
       <c r="D47" s="68"/>
@@ -16586,7 +16730,7 @@
       <c r="AJ47" s="175"/>
       <c r="AK47" s="37"/>
     </row>
-    <row r="48" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="205"/>
       <c r="D48" s="68"/>
@@ -16651,7 +16795,7 @@
       <c r="AJ48" s="175"/>
       <c r="AK48" s="37"/>
     </row>
-    <row r="49" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="205"/>
       <c r="D49" s="68"/>
@@ -16726,7 +16870,7 @@
       <c r="AJ49" s="175"/>
       <c r="AK49" s="37"/>
     </row>
-    <row r="50" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="205"/>
       <c r="D50" s="68"/>
@@ -16805,7 +16949,7 @@
       </c>
       <c r="AK50" s="37"/>
     </row>
-    <row r="51" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="205"/>
       <c r="D51" s="55"/>
@@ -16882,7 +17026,7 @@
       <c r="AJ51" s="174"/>
       <c r="AK51" s="37"/>
     </row>
-    <row r="52" spans="2:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="205"/>
       <c r="D52" s="211" t="s">
@@ -16982,7 +17126,7 @@
       <c r="AK52" s="37"/>
       <c r="AL52" s="23"/>
     </row>
-    <row r="53" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="205"/>
       <c r="D53" s="68"/>
@@ -17062,7 +17206,7 @@
       <c r="AK53" s="37"/>
       <c r="AL53" s="23"/>
     </row>
-    <row r="54" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="205"/>
       <c r="D54" s="68"/>
@@ -17132,7 +17276,7 @@
       <c r="AK54" s="37"/>
       <c r="AL54" s="23"/>
     </row>
-    <row r="55" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="205"/>
       <c r="D55" s="68"/>
@@ -17202,7 +17346,7 @@
       <c r="AK55" s="37"/>
       <c r="AL55" s="23"/>
     </row>
-    <row r="56" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="205"/>
       <c r="D56" s="68"/>
@@ -17272,7 +17416,7 @@
       <c r="AK56" s="37"/>
       <c r="AL56" s="23"/>
     </row>
-    <row r="57" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="205"/>
       <c r="D57" s="55"/>
@@ -17342,7 +17486,7 @@
       <c r="AK57" s="37"/>
       <c r="AL57" s="23"/>
     </row>
-    <row r="58" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="205"/>
       <c r="D58" s="223" t="s">
@@ -17443,7 +17587,7 @@
       </c>
       <c r="AK58" s="37"/>
     </row>
-    <row r="59" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="205"/>
       <c r="D59" s="59"/>
@@ -17516,7 +17660,7 @@
       <c r="AJ59" s="175"/>
       <c r="AK59" s="37"/>
     </row>
-    <row r="60" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="205"/>
       <c r="D60" s="88"/>
@@ -17591,7 +17735,7 @@
       </c>
       <c r="AK60" s="37"/>
     </row>
-    <row r="61" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="205"/>
       <c r="D61" s="59"/>
@@ -17658,7 +17802,7 @@
       <c r="AJ61" s="175"/>
       <c r="AK61" s="37"/>
     </row>
-    <row r="62" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="205"/>
       <c r="D62" s="59"/>
@@ -17725,7 +17869,7 @@
       <c r="AJ62" s="175"/>
       <c r="AK62" s="37"/>
     </row>
-    <row r="63" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="205"/>
       <c r="D63" s="59"/>
@@ -17796,7 +17940,7 @@
       <c r="AJ63" s="175"/>
       <c r="AK63" s="37"/>
     </row>
-    <row r="64" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="205"/>
       <c r="D64" s="59"/>
@@ -17869,7 +18013,7 @@
       <c r="AJ64" s="175"/>
       <c r="AK64" s="37"/>
     </row>
-    <row r="65" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="205"/>
       <c r="D65" s="77"/>
@@ -17934,7 +18078,7 @@
       <c r="AJ65" s="174"/>
       <c r="AK65" s="37"/>
     </row>
-    <row r="66" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="206"/>
       <c r="D66" s="223" t="s">
@@ -18030,7 +18174,7 @@
       </c>
       <c r="AK66" s="37"/>
     </row>
-    <row r="67" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="205"/>
       <c r="D67" s="59"/>
@@ -18099,7 +18243,7 @@
       <c r="AJ67" s="175"/>
       <c r="AK67" s="37"/>
     </row>
-    <row r="68" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="205"/>
       <c r="D68" s="59"/>
@@ -18164,7 +18308,7 @@
       <c r="AJ68" s="175"/>
       <c r="AK68" s="37"/>
     </row>
-    <row r="69" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="205"/>
       <c r="D69" s="59"/>
@@ -18231,7 +18375,7 @@
       <c r="AJ69" s="175"/>
       <c r="AK69" s="37"/>
     </row>
-    <row r="70" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="205"/>
       <c r="D70" s="59"/>
@@ -18298,7 +18442,7 @@
       <c r="AJ70" s="175"/>
       <c r="AK70" s="37"/>
     </row>
-    <row r="71" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="205"/>
       <c r="D71" s="88"/>
@@ -18363,7 +18507,7 @@
       <c r="AJ71" s="175"/>
       <c r="AK71" s="37"/>
     </row>
-    <row r="72" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="205"/>
       <c r="D72" s="59"/>
@@ -18428,7 +18572,7 @@
       <c r="AJ72" s="175"/>
       <c r="AK72" s="37"/>
     </row>
-    <row r="73" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="205"/>
       <c r="D73" s="59"/>
@@ -18501,7 +18645,7 @@
       </c>
       <c r="AK73" s="37"/>
     </row>
-    <row r="74" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="205"/>
       <c r="D74" s="59"/>
@@ -18566,7 +18710,7 @@
       <c r="AJ74" s="175"/>
       <c r="AK74" s="37"/>
     </row>
-    <row r="75" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="205"/>
       <c r="D75" s="59"/>
@@ -18633,7 +18777,7 @@
       <c r="AJ75" s="175"/>
       <c r="AK75" s="37"/>
     </row>
-    <row r="76" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="205"/>
       <c r="D76" s="59"/>
@@ -18702,7 +18846,7 @@
       <c r="AJ76" s="175"/>
       <c r="AK76" s="37"/>
     </row>
-    <row r="77" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="205"/>
       <c r="D77" s="59"/>
@@ -18767,7 +18911,7 @@
       <c r="AJ77" s="175"/>
       <c r="AK77" s="37"/>
     </row>
-    <row r="78" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="205"/>
       <c r="D78" s="77"/>
@@ -18836,7 +18980,7 @@
       <c r="AJ78" s="174"/>
       <c r="AK78" s="37"/>
     </row>
-    <row r="79" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="205"/>
       <c r="D79" s="223" t="s">
@@ -18923,7 +19067,7 @@
       </c>
       <c r="AK79" s="37"/>
     </row>
-    <row r="80" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="205"/>
       <c r="D80" s="88"/>
@@ -18988,7 +19132,7 @@
       <c r="AJ80" s="175"/>
       <c r="AK80" s="37"/>
     </row>
-    <row r="81" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="205"/>
       <c r="D81" s="84"/>
@@ -19055,7 +19199,7 @@
       <c r="AJ81" s="174"/>
       <c r="AK81" s="37"/>
     </row>
-    <row r="82" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="205"/>
       <c r="D82" s="223" t="s">
@@ -19149,7 +19293,7 @@
       </c>
       <c r="AK82" s="37"/>
     </row>
-    <row r="83" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="205"/>
       <c r="D83" s="59"/>
@@ -19226,7 +19370,7 @@
       </c>
       <c r="AK83" s="37"/>
     </row>
-    <row r="84" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="205"/>
       <c r="D84" s="59"/>
@@ -19293,7 +19437,7 @@
       <c r="AJ84" s="175"/>
       <c r="AK84" s="37"/>
     </row>
-    <row r="85" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="205"/>
       <c r="D85" s="59"/>
@@ -19362,7 +19506,7 @@
       <c r="AJ85" s="175"/>
       <c r="AK85" s="37"/>
     </row>
-    <row r="86" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="207"/>
       <c r="D86" s="84"/>
@@ -19429,7 +19573,7 @@
       <c r="AJ86" s="174"/>
       <c r="AK86" s="37"/>
     </row>
-    <row r="87" spans="2:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="204"/>
       <c r="D87" s="211" t="s">
@@ -19522,7 +19666,7 @@
       </c>
       <c r="AK87" s="37"/>
     </row>
-    <row r="88" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="205"/>
       <c r="D88" s="68"/>
@@ -19593,7 +19737,7 @@
       <c r="AJ88" s="175"/>
       <c r="AK88" s="37"/>
     </row>
-    <row r="89" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="205"/>
       <c r="D89" s="68"/>
@@ -19660,7 +19804,7 @@
       <c r="AJ89" s="175"/>
       <c r="AK89" s="37"/>
     </row>
-    <row r="90" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="205"/>
       <c r="D90" s="68"/>
@@ -19731,7 +19875,7 @@
       <c r="AJ90" s="175"/>
       <c r="AK90" s="37"/>
     </row>
-    <row r="91" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="205"/>
       <c r="D91" s="68"/>
@@ -19802,7 +19946,7 @@
       <c r="AJ91" s="175"/>
       <c r="AK91" s="37"/>
     </row>
-    <row r="92" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="205"/>
       <c r="D92" s="55"/>
@@ -19873,7 +20017,7 @@
       <c r="AJ92" s="186"/>
       <c r="AK92" s="37"/>
     </row>
-    <row r="93" spans="2:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="206"/>
       <c r="D93" s="223" t="s">
@@ -19965,7 +20109,7 @@
       <c r="AK93" s="37"/>
       <c r="AL93" s="23"/>
     </row>
-    <row r="94" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="205"/>
       <c r="D94" s="88"/>
@@ -20041,7 +20185,7 @@
       <c r="AK94" s="37"/>
       <c r="AL94" s="23"/>
     </row>
-    <row r="95" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="205"/>
       <c r="D95" s="59"/>
@@ -20109,7 +20253,7 @@
       <c r="AK95" s="37"/>
       <c r="AL95" s="23"/>
     </row>
-    <row r="96" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="205"/>
       <c r="D96" s="59"/>
@@ -20179,7 +20323,7 @@
       <c r="AK96" s="37"/>
       <c r="AL96" s="23"/>
     </row>
-    <row r="97" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="205"/>
       <c r="D97" s="59"/>
@@ -20249,7 +20393,7 @@
       <c r="AK97" s="37"/>
       <c r="AL97" s="23"/>
     </row>
-    <row r="98" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="205"/>
       <c r="D98" s="59"/>
@@ -20317,7 +20461,7 @@
       <c r="AK98" s="37"/>
       <c r="AL98" s="23"/>
     </row>
-    <row r="99" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="205"/>
       <c r="D99" s="88"/>
@@ -20387,7 +20531,7 @@
       <c r="AK99" s="37"/>
       <c r="AL99" s="23"/>
     </row>
-    <row r="100" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="205"/>
       <c r="D100" s="88"/>
@@ -20455,7 +20599,7 @@
       <c r="AK100" s="37"/>
       <c r="AL100" s="23"/>
     </row>
-    <row r="101" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="205"/>
       <c r="D101" s="77"/>
@@ -20527,7 +20671,7 @@
       <c r="AK101" s="37"/>
       <c r="AL101" s="23"/>
     </row>
-    <row r="102" spans="1:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="205"/>
       <c r="D102" s="212" t="s">
@@ -20619,7 +20763,7 @@
       </c>
       <c r="AK102" s="37"/>
     </row>
-    <row r="103" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="205"/>
       <c r="D103" s="59"/>
@@ -20690,7 +20834,7 @@
       </c>
       <c r="AK103" s="37"/>
     </row>
-    <row r="104" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="205"/>
       <c r="D104" s="59"/>
@@ -20761,7 +20905,7 @@
       </c>
       <c r="AK104" s="37"/>
     </row>
-    <row r="105" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="205"/>
       <c r="D105" s="59"/>
@@ -20830,7 +20974,7 @@
       <c r="AJ105" s="175"/>
       <c r="AK105" s="37"/>
     </row>
-    <row r="106" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="205"/>
       <c r="D106" s="59"/>
@@ -20897,7 +21041,7 @@
       <c r="AJ106" s="175"/>
       <c r="AK106" s="37"/>
     </row>
-    <row r="107" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="207"/>
       <c r="D107" s="44"/>
@@ -20964,7 +21108,7 @@
       <c r="AJ107" s="186"/>
       <c r="AK107" s="37"/>
     </row>
-    <row r="108" spans="1:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="13"/>
       <c r="C108" s="209"/>
       <c r="D108" s="223" t="s">
@@ -21049,7 +21193,7 @@
       </c>
       <c r="AK108" s="37"/>
     </row>
-    <row r="109" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B109" s="13"/>
       <c r="C109" s="202"/>
       <c r="D109" s="77"/>
@@ -21126,7 +21270,7 @@
       </c>
       <c r="AK109" s="37"/>
     </row>
-    <row r="110" spans="1:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="15"/>
       <c r="C110" s="202"/>
@@ -21216,7 +21360,7 @@
       </c>
       <c r="AK110" s="37"/>
     </row>
-    <row r="111" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="15"/>
       <c r="C111" s="202"/>
@@ -21292,7 +21436,7 @@
       </c>
       <c r="AK111" s="37"/>
     </row>
-    <row r="112" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="15"/>
       <c r="C112" s="202"/>
@@ -21360,7 +21504,7 @@
       <c r="AJ112" s="175"/>
       <c r="AK112" s="37"/>
     </row>
-    <row r="113" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="15"/>
       <c r="C113" s="202"/>
@@ -21428,7 +21572,7 @@
       <c r="AJ113" s="175"/>
       <c r="AK113" s="37"/>
     </row>
-    <row r="114" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="15"/>
       <c r="C114" s="202"/>
@@ -21496,7 +21640,7 @@
       <c r="AJ114" s="175"/>
       <c r="AK114" s="37"/>
     </row>
-    <row r="115" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="15"/>
       <c r="C115" s="202"/>
@@ -21564,7 +21708,7 @@
       <c r="AJ115" s="186"/>
       <c r="AK115" s="37"/>
     </row>
-    <row r="116" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="15"/>
       <c r="C116" s="202"/>
@@ -21653,7 +21797,7 @@
       </c>
       <c r="AK116" s="37"/>
     </row>
-    <row r="117" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="15"/>
       <c r="C117" s="202"/>
@@ -21721,7 +21865,7 @@
       <c r="AJ117" s="175"/>
       <c r="AK117" s="37"/>
     </row>
-    <row r="118" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="15"/>
       <c r="C118" s="202"/>
@@ -21789,7 +21933,7 @@
       <c r="AJ118" s="175"/>
       <c r="AK118" s="37"/>
     </row>
-    <row r="119" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="15"/>
       <c r="C119" s="202"/>
@@ -21869,7 +22013,7 @@
       <c r="AJ119" s="175"/>
       <c r="AK119" s="37"/>
     </row>
-    <row r="120" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="15"/>
       <c r="C120" s="202"/>
@@ -21937,7 +22081,7 @@
       <c r="AJ120" s="186"/>
       <c r="AK120" s="37"/>
     </row>
-    <row r="121" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="15"/>
       <c r="C121" s="202"/>
@@ -22025,7 +22169,7 @@
       </c>
       <c r="AK121" s="37"/>
     </row>
-    <row r="122" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="15"/>
       <c r="C122" s="202"/>
@@ -22093,7 +22237,7 @@
       <c r="AJ122" s="175"/>
       <c r="AK122" s="37"/>
     </row>
-    <row r="123" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="15"/>
       <c r="C123" s="202"/>
@@ -22161,7 +22305,7 @@
       <c r="AJ123" s="175"/>
       <c r="AK123" s="37"/>
     </row>
-    <row r="124" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="15"/>
       <c r="C124" s="202"/>
@@ -22239,7 +22383,7 @@
       </c>
       <c r="AK124" s="37"/>
     </row>
-    <row r="125" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="13"/>
       <c r="C125" s="202"/>
       <c r="D125" s="223" t="s">
@@ -22324,7 +22468,7 @@
       </c>
       <c r="AK125" s="37"/>
     </row>
-    <row r="126" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="202"/>
       <c r="D126" s="88"/>
@@ -22391,7 +22535,7 @@
       <c r="AJ126" s="175"/>
       <c r="AK126" s="37"/>
     </row>
-    <row r="127" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B127" s="13"/>
       <c r="C127" s="203"/>
       <c r="D127" s="84"/>
@@ -22468,7 +22612,7 @@
       </c>
       <c r="AK127" s="37"/>
     </row>
-    <row r="128" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="13"/>
       <c r="C128" s="200"/>
@@ -22556,7 +22700,7 @@
       </c>
       <c r="AK128" s="37"/>
     </row>
-    <row r="129" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="13"/>
       <c r="C129" s="201"/>
@@ -22626,7 +22770,7 @@
       <c r="AJ129" s="186"/>
       <c r="AK129" s="37"/>
     </row>
-    <row r="130" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="13"/>
       <c r="C130" s="201"/>
@@ -22712,7 +22856,7 @@
       </c>
       <c r="AK130" s="37"/>
     </row>
-    <row r="131" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="13"/>
       <c r="C131" s="201"/>
@@ -22780,7 +22924,7 @@
       <c r="AJ131" s="175"/>
       <c r="AK131" s="37"/>
     </row>
-    <row r="132" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="13"/>
       <c r="C132" s="201"/>
@@ -22850,7 +22994,7 @@
       <c r="AJ132" s="186"/>
       <c r="AK132" s="37"/>
     </row>
-    <row r="133" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="13"/>
       <c r="C133" s="201"/>
@@ -22936,7 +23080,7 @@
       </c>
       <c r="AK133" s="37"/>
     </row>
-    <row r="134" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="13"/>
       <c r="C134" s="201"/>
@@ -23004,7 +23148,7 @@
       <c r="AJ134" s="175"/>
       <c r="AK134" s="37"/>
     </row>
-    <row r="135" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14"/>
       <c r="B135" s="13"/>
       <c r="C135" s="201"/>
@@ -23072,7 +23216,7 @@
       <c r="AJ135" s="175"/>
       <c r="AK135" s="37"/>
     </row>
-    <row r="136" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="13"/>
       <c r="C136" s="208"/>
@@ -23140,7 +23284,7 @@
       <c r="AJ136" s="186"/>
       <c r="AK136" s="37"/>
     </row>
-    <row r="137" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="13"/>
       <c r="C137" s="10"/>
@@ -23179,7 +23323,7 @@
       <c r="AJ137" s="210"/>
       <c r="AK137" s="14"/>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="13"/>
       <c r="C138" s="16"/>
@@ -23227,7 +23371,7 @@
       <c r="AJ138" s="16"/>
       <c r="AK138" s="14"/>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="13"/>
       <c r="C139" s="16"/>
@@ -23273,7 +23417,7 @@
       <c r="AJ139" s="16"/>
       <c r="AK139" s="14"/>
     </row>
-    <row r="140" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="19"/>
       <c r="C140" s="20"/>
       <c r="D140" s="20"/>
@@ -23311,43 +23455,43 @@
       <c r="AJ140" s="20"/>
       <c r="AK140" s="22"/>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="F142" s="4"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="F143" s="18"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="389"/>
       <c r="D152" s="390"/>
       <c r="E152" s="229"/>
       <c r="F152" s="364"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="389"/>
       <c r="D153" s="390"/>
       <c r="E153" s="229"/>
       <c r="F153" s="364"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="389"/>
       <c r="D154" s="390"/>
       <c r="E154" s="229"/>
       <c r="F154" s="364"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="389"/>
       <c r="D155" s="390"/>
       <c r="E155" s="229"/>
       <c r="F155" s="364"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D156" s="390"/>
       <c r="E156" s="229"/>
       <c r="F156" s="364"/>
@@ -23649,47 +23793,47 @@
   <dimension ref="A1:AP155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+      <selection activeCell="J4" sqref="J4:J135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="61.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="116" customWidth="1"/>
-    <col min="11" max="14" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="61.1640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="116" customWidth="1"/>
+    <col min="11" max="14" width="10.5" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="11" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="10" style="33" customWidth="1"/>
-    <col min="17" max="20" width="16.7109375" style="242" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="23" width="10.7109375" style="156" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="10.7109375" style="233" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="12.28515625" style="148" customWidth="1"/>
-    <col min="26" max="30" width="10.7109375" customWidth="1"/>
-    <col min="31" max="31" width="2.28515625" customWidth="1"/>
-    <col min="32" max="32" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" customWidth="1"/>
-    <col min="38" max="38" width="23.42578125" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" customWidth="1"/>
-    <col min="40" max="40" width="15.28515625" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" customWidth="1"/>
+    <col min="17" max="20" width="16.6640625" style="242" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="23" width="10.6640625" style="156" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="10.6640625" style="233" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.33203125" style="148" customWidth="1"/>
+    <col min="26" max="30" width="10.6640625" customWidth="1"/>
+    <col min="31" max="31" width="2.33203125" customWidth="1"/>
+    <col min="32" max="32" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" customWidth="1"/>
+    <col min="38" max="38" width="23.5" customWidth="1"/>
+    <col min="39" max="39" width="18.5" customWidth="1"/>
+    <col min="40" max="40" width="15.33203125" customWidth="1"/>
+    <col min="41" max="41" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:42" x14ac:dyDescent="0.2">
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
     </row>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -23732,7 +23876,7 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" spans="2:42" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:42" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="399" t="s">
         <v>333</v>
@@ -23779,7 +23923,7 @@
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
     </row>
-    <row r="4" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="168" t="s">
         <v>0</v>
@@ -23803,7 +23947,7 @@
         <v>335</v>
       </c>
       <c r="J4" s="118" t="s">
-        <v>53</v>
+        <v>555</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>3</v>
@@ -23888,7 +24032,7 @@
       <c r="AO4" s="34"/>
       <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="204"/>
       <c r="D5" s="211" t="s">
@@ -23916,7 +24060,7 @@
 </v>
       </c>
       <c r="J5" s="215" t="s">
-        <v>63</v>
+        <v>556</v>
       </c>
       <c r="K5" s="216">
         <f>SUM(K6:K11)</f>
@@ -23995,7 +24139,7 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
     </row>
-    <row r="6" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13"/>
       <c r="C6" s="205"/>
       <c r="D6" s="68"/>
@@ -24010,7 +24154,7 @@
       <c r="I6" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="J6" s="139">
+      <c r="J6" s="144">
         <v>1</v>
       </c>
       <c r="K6" s="124"/>
@@ -24073,7 +24217,7 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
     </row>
-    <row r="7" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="205"/>
       <c r="D7" s="68"/>
@@ -24088,8 +24232,8 @@
       <c r="I7" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="J7" s="139">
-        <v>2</v>
+      <c r="J7" s="144" t="s">
+        <v>557</v>
       </c>
       <c r="K7" s="82">
         <v>10000</v>
@@ -24159,7 +24303,7 @@
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
     </row>
-    <row r="8" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="205"/>
       <c r="D8" s="68"/>
@@ -24174,8 +24318,8 @@
       <c r="I8" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="J8" s="139">
-        <v>1</v>
+      <c r="J8" s="144" t="s">
+        <v>548</v>
       </c>
       <c r="K8" s="124"/>
       <c r="L8" s="125"/>
@@ -24239,7 +24383,7 @@
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
     </row>
-    <row r="9" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="205"/>
       <c r="D9" s="68"/>
@@ -24254,8 +24398,8 @@
       <c r="I9" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="J9" s="139">
-        <v>1</v>
+      <c r="J9" s="144" t="s">
+        <v>558</v>
       </c>
       <c r="K9" s="259">
         <v>25000</v>
@@ -24323,7 +24467,7 @@
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
     </row>
-    <row r="10" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="205"/>
       <c r="D10" s="68"/>
@@ -24336,7 +24480,9 @@
         <v>3</v>
       </c>
       <c r="I10" s="60"/>
-      <c r="J10" s="139"/>
+      <c r="J10" s="144" t="s">
+        <v>548</v>
+      </c>
       <c r="K10" s="124"/>
       <c r="L10" s="125"/>
       <c r="M10" s="125"/>
@@ -24393,7 +24539,7 @@
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
     </row>
-    <row r="11" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="205"/>
       <c r="D11" s="41"/>
@@ -24406,7 +24552,9 @@
         <v>3</v>
       </c>
       <c r="I11" s="39"/>
-      <c r="J11" s="140"/>
+      <c r="J11" s="140" t="s">
+        <v>559</v>
+      </c>
       <c r="K11" s="127"/>
       <c r="L11" s="128"/>
       <c r="M11" s="128"/>
@@ -24465,7 +24613,7 @@
       <c r="AO11" s="3"/>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="205"/>
       <c r="D12" s="211" t="s">
@@ -24558,7 +24706,7 @@
       <c r="AO12" s="3"/>
       <c r="AP12" s="3"/>
     </row>
-    <row r="13" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="205"/>
       <c r="D13" s="68"/>
@@ -24571,7 +24719,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="60"/>
-      <c r="J13" s="139"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="124"/>
       <c r="L13" s="125"/>
       <c r="M13" s="125"/>
@@ -24628,7 +24776,7 @@
       <c r="AO13" s="3"/>
       <c r="AP13" s="3"/>
     </row>
-    <row r="14" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="205"/>
       <c r="D14" s="68"/>
@@ -24641,7 +24789,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="60"/>
-      <c r="J14" s="139"/>
+      <c r="J14" s="144"/>
       <c r="K14" s="124"/>
       <c r="L14" s="125"/>
       <c r="M14" s="125"/>
@@ -24698,7 +24846,7 @@
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
     </row>
-    <row r="15" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="C15" s="205"/>
       <c r="D15" s="68"/>
@@ -24711,7 +24859,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="60"/>
-      <c r="J15" s="139"/>
+      <c r="J15" s="144"/>
       <c r="K15" s="124"/>
       <c r="L15" s="125"/>
       <c r="M15" s="125"/>
@@ -24770,7 +24918,7 @@
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
     </row>
-    <row r="16" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="205"/>
       <c r="D16" s="68"/>
@@ -24783,7 +24931,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="60"/>
-      <c r="J16" s="139"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="124"/>
       <c r="L16" s="125"/>
       <c r="M16" s="125"/>
@@ -24840,7 +24988,7 @@
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
     </row>
-    <row r="17" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13"/>
       <c r="C17" s="205"/>
       <c r="D17" s="55"/>
@@ -24853,7 +25001,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="39"/>
-      <c r="J17" s="141"/>
+      <c r="J17" s="140"/>
       <c r="K17" s="127"/>
       <c r="L17" s="128"/>
       <c r="M17" s="128"/>
@@ -24910,7 +25058,7 @@
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
     </row>
-    <row r="18" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="206"/>
       <c r="D18" s="223" t="s">
@@ -24936,7 +25084,9 @@
 Eramba GRC
 </v>
       </c>
-      <c r="J18" s="226"/>
+      <c r="J18" s="226" t="s">
+        <v>560</v>
+      </c>
       <c r="K18" s="216">
         <f>SUM(K19:K22)</f>
         <v>250000</v>
@@ -25020,7 +25170,7 @@
       <c r="AK18" s="37"/>
       <c r="AM18" s="23"/>
     </row>
-    <row r="19" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="205"/>
       <c r="D19" s="59"/>
@@ -25035,7 +25185,9 @@
       <c r="I19" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="139"/>
+      <c r="J19" s="144" t="s">
+        <v>559</v>
+      </c>
       <c r="K19" s="124"/>
       <c r="L19" s="125"/>
       <c r="M19" s="125"/>
@@ -25098,7 +25250,7 @@
       <c r="AK19" s="37"/>
       <c r="AM19" s="23"/>
     </row>
-    <row r="20" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13"/>
       <c r="C20" s="205"/>
       <c r="D20" s="59"/>
@@ -25113,7 +25265,9 @@
       <c r="I20" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="J20" s="139"/>
+      <c r="J20" s="144" t="s">
+        <v>561</v>
+      </c>
       <c r="K20" s="82">
         <v>250000</v>
       </c>
@@ -25186,7 +25340,7 @@
       <c r="AK20" s="37"/>
       <c r="AM20" s="23"/>
     </row>
-    <row r="21" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="205"/>
       <c r="D21" s="59"/>
@@ -25201,7 +25355,7 @@
       <c r="I21" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="139"/>
+      <c r="J21" s="144"/>
       <c r="K21" s="124"/>
       <c r="L21" s="125"/>
       <c r="M21" s="125"/>
@@ -25262,7 +25416,7 @@
       <c r="AK21" s="37"/>
       <c r="AM21" s="23"/>
     </row>
-    <row r="22" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="205"/>
       <c r="D22" s="77"/>
@@ -25275,7 +25429,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="79"/>
-      <c r="J22" s="142"/>
+      <c r="J22" s="143"/>
       <c r="K22" s="130"/>
       <c r="L22" s="131"/>
       <c r="M22" s="131"/>
@@ -25338,7 +25492,7 @@
       <c r="AK22" s="37"/>
       <c r="AM22" s="23"/>
     </row>
-    <row r="23" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
       <c r="C23" s="205"/>
       <c r="D23" s="211" t="s">
@@ -25367,7 +25521,7 @@
 Risk Assessments</v>
       </c>
       <c r="J23" s="215" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="K23" s="216">
         <f>SUM(K24:K29)</f>
@@ -25440,7 +25594,7 @@
       </c>
       <c r="AK23" s="37"/>
     </row>
-    <row r="24" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="205"/>
       <c r="D24" s="68"/>
@@ -25455,8 +25609,8 @@
       <c r="I24" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="J24" s="139" t="s">
-        <v>548</v>
+      <c r="J24" s="144" t="s">
+        <v>563</v>
       </c>
       <c r="K24" s="124"/>
       <c r="L24" s="125"/>
@@ -25511,7 +25665,7 @@
       <c r="AJ24" s="175"/>
       <c r="AK24" s="37"/>
     </row>
-    <row r="25" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="205"/>
       <c r="D25" s="68"/>
@@ -25526,9 +25680,7 @@
       <c r="I25" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="J25" s="139" t="s">
-        <v>548</v>
-      </c>
+      <c r="J25" s="144"/>
       <c r="K25" s="124"/>
       <c r="L25" s="125"/>
       <c r="M25" s="125"/>
@@ -25584,7 +25736,7 @@
       <c r="AJ25" s="175"/>
       <c r="AK25" s="37"/>
     </row>
-    <row r="26" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="205"/>
       <c r="D26" s="68"/>
@@ -25599,9 +25751,7 @@
       <c r="I26" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="J26" s="139" t="s">
-        <v>549</v>
-      </c>
+      <c r="J26" s="144"/>
       <c r="K26" s="124"/>
       <c r="L26" s="125"/>
       <c r="M26" s="125"/>
@@ -25653,7 +25803,7 @@
       <c r="AJ26" s="175"/>
       <c r="AK26" s="37"/>
     </row>
-    <row r="27" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="205"/>
       <c r="D27" s="68"/>
@@ -25668,7 +25818,7 @@
       <c r="I27" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="J27" s="139"/>
+      <c r="J27" s="144"/>
       <c r="K27" s="124"/>
       <c r="L27" s="125"/>
       <c r="M27" s="125"/>
@@ -25730,7 +25880,7 @@
       </c>
       <c r="AK27" s="37"/>
     </row>
-    <row r="28" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="205"/>
       <c r="D28" s="68"/>
@@ -25745,7 +25895,9 @@
       <c r="I28" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="139"/>
+      <c r="J28" s="144" t="s">
+        <v>562</v>
+      </c>
       <c r="K28" s="124"/>
       <c r="L28" s="125"/>
       <c r="M28" s="125"/>
@@ -25797,7 +25949,7 @@
       <c r="AJ28" s="175"/>
       <c r="AK28" s="37"/>
     </row>
-    <row r="29" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="205"/>
       <c r="D29" s="41"/>
@@ -25874,7 +26026,7 @@
       </c>
       <c r="AK29" s="37"/>
     </row>
-    <row r="30" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="205"/>
       <c r="D30" s="223" t="s">
@@ -25971,7 +26123,7 @@
       </c>
       <c r="AK30" s="37"/>
     </row>
-    <row r="31" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="205"/>
       <c r="D31" s="59"/>
@@ -25984,7 +26136,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="60"/>
-      <c r="J31" s="139"/>
+      <c r="J31" s="144"/>
       <c r="K31" s="124"/>
       <c r="L31" s="125"/>
       <c r="M31" s="125"/>
@@ -26046,7 +26198,7 @@
       </c>
       <c r="AK31" s="37"/>
     </row>
-    <row r="32" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="205"/>
       <c r="D32" s="59"/>
@@ -26059,7 +26211,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="60"/>
-      <c r="J32" s="139"/>
+      <c r="J32" s="144"/>
       <c r="K32" s="124"/>
       <c r="L32" s="125"/>
       <c r="M32" s="125"/>
@@ -26121,7 +26273,7 @@
       </c>
       <c r="AK32" s="37"/>
     </row>
-    <row r="33" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="207"/>
       <c r="D33" s="84"/>
@@ -26186,7 +26338,7 @@
       <c r="AJ33" s="174"/>
       <c r="AK33" s="37"/>
     </row>
-    <row r="34" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="205"/>
       <c r="D34" s="223" t="s">
@@ -26209,7 +26361,9 @@
         <f>(IF(I35="","",I35&amp;CHAR(10))&amp;(IF(I36="","",I36&amp;CHAR(10))&amp;IF(I39="","",I39)))</f>
         <v/>
       </c>
-      <c r="J34" s="226"/>
+      <c r="J34" s="226" t="s">
+        <v>564</v>
+      </c>
       <c r="K34" s="216">
         <f>SUM(K35:K39)</f>
         <v>0</v>
@@ -26283,7 +26437,7 @@
       </c>
       <c r="AK34" s="37"/>
     </row>
-    <row r="35" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="205"/>
       <c r="D35" s="59"/>
@@ -26296,7 +26450,9 @@
         <v>4</v>
       </c>
       <c r="I35" s="60"/>
-      <c r="J35" s="139"/>
+      <c r="J35" s="144" t="s">
+        <v>565</v>
+      </c>
       <c r="K35" s="124"/>
       <c r="L35" s="125"/>
       <c r="M35" s="125"/>
@@ -26358,7 +26514,7 @@
       </c>
       <c r="AK35" s="37"/>
     </row>
-    <row r="36" spans="2:38" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:38" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="205"/>
       <c r="D36" s="59"/>
@@ -26371,7 +26527,9 @@
         <v>4</v>
       </c>
       <c r="I36" s="60"/>
-      <c r="J36" s="139"/>
+      <c r="J36" s="144" t="s">
+        <v>565</v>
+      </c>
       <c r="K36" s="124"/>
       <c r="L36" s="125"/>
       <c r="M36" s="125"/>
@@ -26433,7 +26591,7 @@
       </c>
       <c r="AK36" s="37"/>
     </row>
-    <row r="37" spans="2:38" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="205"/>
       <c r="D37" s="325"/>
@@ -26446,7 +26604,9 @@
         <v>6</v>
       </c>
       <c r="I37" s="327"/>
-      <c r="J37" s="145"/>
+      <c r="J37" s="146" t="s">
+        <v>565</v>
+      </c>
       <c r="K37" s="127"/>
       <c r="L37" s="128"/>
       <c r="M37" s="128"/>
@@ -26498,7 +26658,7 @@
       <c r="AJ37" s="331"/>
       <c r="AK37" s="37"/>
     </row>
-    <row r="38" spans="2:38" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="207"/>
       <c r="D38" s="332"/>
@@ -26511,7 +26671,9 @@
         <v>6</v>
       </c>
       <c r="I38" s="327"/>
-      <c r="J38" s="146"/>
+      <c r="J38" s="146" t="s">
+        <v>565</v>
+      </c>
       <c r="K38" s="127"/>
       <c r="L38" s="128"/>
       <c r="M38" s="128"/>
@@ -26563,7 +26725,7 @@
       <c r="AJ38" s="179"/>
       <c r="AK38" s="37"/>
     </row>
-    <row r="39" spans="2:38" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:38" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="207"/>
       <c r="D39" s="336"/>
@@ -26576,7 +26738,9 @@
         <v>6</v>
       </c>
       <c r="I39" s="338"/>
-      <c r="J39" s="340"/>
+      <c r="J39" s="340" t="s">
+        <v>566</v>
+      </c>
       <c r="K39" s="341"/>
       <c r="L39" s="342"/>
       <c r="M39" s="342"/>
@@ -26628,7 +26792,7 @@
       <c r="AJ39" s="353"/>
       <c r="AK39" s="37"/>
     </row>
-    <row r="40" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="204"/>
       <c r="D40" s="211" t="s">
@@ -26652,7 +26816,7 @@
 </v>
       </c>
       <c r="J40" s="215" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="K40" s="216">
         <f>SUM(K41:K47)</f>
@@ -26722,7 +26886,7 @@
       </c>
       <c r="AK40" s="37"/>
     </row>
-    <row r="41" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="205"/>
       <c r="D41" s="68"/>
@@ -26737,8 +26901,8 @@
       <c r="I41" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="J41" s="139">
-        <v>18</v>
+      <c r="J41" s="144" t="s">
+        <v>568</v>
       </c>
       <c r="K41" s="82">
         <v>10000</v>
@@ -26801,7 +26965,7 @@
       <c r="AJ41" s="175"/>
       <c r="AK41" s="37"/>
     </row>
-    <row r="42" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="205"/>
       <c r="D42" s="68"/>
@@ -26814,7 +26978,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="60"/>
-      <c r="J42" s="139"/>
+      <c r="J42" s="144"/>
       <c r="K42" s="124"/>
       <c r="L42" s="125"/>
       <c r="M42" s="125"/>
@@ -26866,7 +27030,7 @@
       <c r="AJ42" s="175"/>
       <c r="AK42" s="37"/>
     </row>
-    <row r="43" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="205"/>
       <c r="D43" s="68"/>
@@ -26881,8 +27045,8 @@
       <c r="I43" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="J43" s="139">
-        <v>12</v>
+      <c r="J43" s="144" t="s">
+        <v>569</v>
       </c>
       <c r="K43" s="82">
         <v>500000</v>
@@ -26941,7 +27105,7 @@
       <c r="AJ43" s="175"/>
       <c r="AK43" s="37"/>
     </row>
-    <row r="44" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B44" s="13"/>
       <c r="C44" s="205"/>
       <c r="D44" s="68"/>
@@ -26956,8 +27120,8 @@
       <c r="I44" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="J44" s="139" t="s">
-        <v>556</v>
+      <c r="J44" s="144" t="s">
+        <v>570</v>
       </c>
       <c r="K44" s="124"/>
       <c r="L44" s="125"/>
@@ -27020,7 +27184,7 @@
       </c>
       <c r="AK44" s="37"/>
     </row>
-    <row r="45" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="205"/>
       <c r="D45" s="68"/>
@@ -27035,8 +27199,8 @@
       <c r="I45" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="J45" s="139" t="s">
-        <v>221</v>
+      <c r="J45" s="140" t="s">
+        <v>571</v>
       </c>
       <c r="K45" s="359">
         <v>10000</v>
@@ -27097,7 +27261,7 @@
       <c r="AJ45" s="175"/>
       <c r="AK45" s="37"/>
     </row>
-    <row r="46" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="205"/>
       <c r="D46" s="68"/>
@@ -27110,7 +27274,7 @@
         <v>8</v>
       </c>
       <c r="I46" s="60"/>
-      <c r="J46" s="139"/>
+      <c r="J46" s="144"/>
       <c r="K46" s="359"/>
       <c r="L46" s="125"/>
       <c r="M46" s="125"/>
@@ -27162,7 +27326,7 @@
       <c r="AJ46" s="175"/>
       <c r="AK46" s="37"/>
     </row>
-    <row r="47" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="205"/>
       <c r="D47" s="55"/>
@@ -27175,7 +27339,9 @@
         <v>8</v>
       </c>
       <c r="I47" s="39"/>
-      <c r="J47" s="141"/>
+      <c r="J47" s="140" t="s">
+        <v>572</v>
+      </c>
       <c r="K47" s="94"/>
       <c r="L47" s="128"/>
       <c r="M47" s="128"/>
@@ -27227,7 +27393,7 @@
       <c r="AJ47" s="174"/>
       <c r="AK47" s="37"/>
     </row>
-    <row r="48" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="205"/>
       <c r="D48" s="211" t="s">
@@ -27255,7 +27421,7 @@
 Security Policy, (Eramba GRC)</v>
       </c>
       <c r="J48" s="215" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="K48" s="216">
         <f>SUM(K49:K53)</f>
@@ -27327,7 +27493,7 @@
       <c r="AK48" s="37"/>
       <c r="AL48" s="23"/>
     </row>
-    <row r="49" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="205"/>
       <c r="D49" s="68"/>
@@ -27342,8 +27508,8 @@
       <c r="I49" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="J49" s="139">
-        <v>17</v>
+      <c r="J49" s="144" t="s">
+        <v>574</v>
       </c>
       <c r="K49" s="124"/>
       <c r="L49" s="125"/>
@@ -27407,7 +27573,7 @@
       <c r="AK49" s="37"/>
       <c r="AL49" s="23"/>
     </row>
-    <row r="50" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="205"/>
       <c r="D50" s="68"/>
@@ -27422,8 +27588,8 @@
       <c r="I50" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="J50" s="139" t="s">
-        <v>557</v>
+      <c r="J50" s="144" t="s">
+        <v>575</v>
       </c>
       <c r="K50" s="124"/>
       <c r="L50" s="125"/>
@@ -27477,7 +27643,7 @@
       <c r="AK50" s="37"/>
       <c r="AL50" s="23"/>
     </row>
-    <row r="51" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="205"/>
       <c r="D51" s="68"/>
@@ -27492,8 +27658,8 @@
       <c r="I51" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="J51" s="139">
-        <v>17</v>
+      <c r="J51" s="144" t="s">
+        <v>565</v>
       </c>
       <c r="K51" s="124"/>
       <c r="L51" s="125"/>
@@ -27547,7 +27713,7 @@
       <c r="AK51" s="37"/>
       <c r="AL51" s="23"/>
     </row>
-    <row r="52" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="205"/>
       <c r="D52" s="68"/>
@@ -27562,8 +27728,8 @@
       <c r="I52" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="J52" s="139">
-        <v>17</v>
+      <c r="J52" s="144" t="s">
+        <v>559</v>
       </c>
       <c r="K52" s="124"/>
       <c r="L52" s="125"/>
@@ -27617,7 +27783,7 @@
       <c r="AK52" s="37"/>
       <c r="AL52" s="23"/>
     </row>
-    <row r="53" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="205"/>
       <c r="D53" s="55"/>
@@ -27632,8 +27798,8 @@
       <c r="I53" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="J53" s="141">
-        <v>17</v>
+      <c r="J53" s="140" t="s">
+        <v>559</v>
       </c>
       <c r="K53" s="127"/>
       <c r="L53" s="128"/>
@@ -27687,7 +27853,7 @@
       <c r="AK53" s="37"/>
       <c r="AL53" s="23"/>
     </row>
-    <row r="54" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="205"/>
       <c r="D54" s="223" t="s">
@@ -27713,7 +27879,7 @@
 </v>
       </c>
       <c r="J54" s="226" t="s">
-        <v>232</v>
+        <v>576</v>
       </c>
       <c r="K54" s="216">
         <f>SUM(K55:K62)</f>
@@ -27785,7 +27951,7 @@
       </c>
       <c r="AK54" s="37"/>
     </row>
-    <row r="55" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="205"/>
       <c r="D55" s="59"/>
@@ -27800,8 +27966,8 @@
       <c r="I55" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="J55" s="139">
-        <v>14</v>
+      <c r="J55" s="144" t="s">
+        <v>577</v>
       </c>
       <c r="K55" s="124"/>
       <c r="L55" s="125"/>
@@ -27858,7 +28024,7 @@
       <c r="AJ55" s="175"/>
       <c r="AK55" s="37"/>
     </row>
-    <row r="56" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="205"/>
       <c r="D56" s="88"/>
@@ -27874,7 +28040,7 @@
         <v>345</v>
       </c>
       <c r="J56" s="144" t="s">
-        <v>222</v>
+        <v>578</v>
       </c>
       <c r="K56" s="124"/>
       <c r="L56" s="125"/>
@@ -27933,7 +28099,7 @@
       </c>
       <c r="AK56" s="37"/>
     </row>
-    <row r="57" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="205"/>
       <c r="D57" s="59"/>
@@ -27946,8 +28112,8 @@
         <v>4</v>
       </c>
       <c r="I57" s="60"/>
-      <c r="J57" s="139">
-        <v>1</v>
+      <c r="J57" s="144" t="s">
+        <v>579</v>
       </c>
       <c r="K57" s="124"/>
       <c r="L57" s="125"/>
@@ -28000,7 +28166,7 @@
       <c r="AJ57" s="175"/>
       <c r="AK57" s="37"/>
     </row>
-    <row r="58" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B58" s="13"/>
       <c r="C58" s="205"/>
       <c r="D58" s="59"/>
@@ -28015,7 +28181,7 @@
       <c r="I58" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="J58" s="139"/>
+      <c r="J58" s="144"/>
       <c r="K58" s="124"/>
       <c r="L58" s="125"/>
       <c r="M58" s="125"/>
@@ -28067,7 +28233,7 @@
       <c r="AJ58" s="175"/>
       <c r="AK58" s="37"/>
     </row>
-    <row r="59" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="205"/>
       <c r="D59" s="59"/>
@@ -28082,8 +28248,8 @@
       <c r="I59" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="J59" s="139">
-        <v>13</v>
+      <c r="J59" s="144" t="s">
+        <v>577</v>
       </c>
       <c r="K59" s="124"/>
       <c r="L59" s="125"/>
@@ -28138,7 +28304,7 @@
       <c r="AJ59" s="175"/>
       <c r="AK59" s="37"/>
     </row>
-    <row r="60" spans="2:38" s="360" customFormat="1" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:38" s="360" customFormat="1" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13"/>
       <c r="C60" s="205"/>
       <c r="D60" s="59"/>
@@ -28153,8 +28319,8 @@
       <c r="I60" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="J60" s="139">
-        <v>2</v>
+      <c r="J60" s="144" t="s">
+        <v>566</v>
       </c>
       <c r="K60" s="124"/>
       <c r="L60" s="125"/>
@@ -28211,7 +28377,7 @@
       <c r="AJ60" s="175"/>
       <c r="AK60" s="37"/>
     </row>
-    <row r="61" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="205"/>
       <c r="D61" s="59"/>
@@ -28224,7 +28390,9 @@
         <v>4</v>
       </c>
       <c r="I61" s="60"/>
-      <c r="J61" s="139"/>
+      <c r="J61" s="146" t="s">
+        <v>580</v>
+      </c>
       <c r="K61" s="124"/>
       <c r="L61" s="125"/>
       <c r="M61" s="125"/>
@@ -28276,7 +28444,7 @@
       <c r="AJ61" s="175"/>
       <c r="AK61" s="37"/>
     </row>
-    <row r="62" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="205"/>
       <c r="D62" s="77"/>
@@ -28289,7 +28457,9 @@
         <v>4</v>
       </c>
       <c r="I62" s="79"/>
-      <c r="J62" s="145"/>
+      <c r="J62" s="146" t="s">
+        <v>580</v>
+      </c>
       <c r="K62" s="127"/>
       <c r="L62" s="128"/>
       <c r="M62" s="128"/>
@@ -28341,7 +28511,7 @@
       <c r="AJ62" s="174"/>
       <c r="AK62" s="37"/>
     </row>
-    <row r="63" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="206"/>
       <c r="D63" s="223" t="s">
@@ -28368,7 +28538,7 @@
 Vulnerability Management, 3rd Party</v>
       </c>
       <c r="J63" s="226" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="K63" s="216">
         <f>SUM(K64:K75)</f>
@@ -28437,7 +28607,7 @@
       </c>
       <c r="AK63" s="37"/>
     </row>
-    <row r="64" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="205"/>
       <c r="D64" s="59"/>
@@ -28452,8 +28622,8 @@
       <c r="I64" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="J64" s="139" t="s">
-        <v>550</v>
+      <c r="J64" s="144" t="s">
+        <v>582</v>
       </c>
       <c r="K64" s="124"/>
       <c r="L64" s="125"/>
@@ -28506,7 +28676,7 @@
       <c r="AJ64" s="175"/>
       <c r="AK64" s="37"/>
     </row>
-    <row r="65" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="205"/>
       <c r="D65" s="59"/>
@@ -28519,7 +28689,9 @@
         <v>4</v>
       </c>
       <c r="I65" s="90"/>
-      <c r="J65" s="139"/>
+      <c r="J65" s="144" t="s">
+        <v>580</v>
+      </c>
       <c r="K65" s="124"/>
       <c r="L65" s="125"/>
       <c r="M65" s="125"/>
@@ -28571,7 +28743,7 @@
       <c r="AJ65" s="175"/>
       <c r="AK65" s="37"/>
     </row>
-    <row r="66" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="205"/>
       <c r="D66" s="59"/>
@@ -28586,7 +28758,7 @@
       <c r="I66" s="90" t="s">
         <v>348</v>
       </c>
-      <c r="J66" s="139"/>
+      <c r="J66" s="144"/>
       <c r="K66" s="124"/>
       <c r="L66" s="125"/>
       <c r="M66" s="125"/>
@@ -28638,7 +28810,7 @@
       <c r="AJ66" s="175"/>
       <c r="AK66" s="37"/>
     </row>
-    <row r="67" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="205"/>
       <c r="D67" s="59"/>
@@ -28653,7 +28825,9 @@
       <c r="I67" s="90" t="s">
         <v>349</v>
       </c>
-      <c r="J67" s="139"/>
+      <c r="J67" s="144" t="s">
+        <v>566</v>
+      </c>
       <c r="K67" s="124"/>
       <c r="L67" s="125"/>
       <c r="M67" s="125"/>
@@ -28705,7 +28879,7 @@
       <c r="AJ67" s="175"/>
       <c r="AK67" s="37"/>
     </row>
-    <row r="68" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
       <c r="C68" s="205"/>
       <c r="D68" s="88"/>
@@ -28770,7 +28944,7 @@
       <c r="AJ68" s="175"/>
       <c r="AK68" s="37"/>
     </row>
-    <row r="69" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="205"/>
       <c r="D69" s="59"/>
@@ -28783,7 +28957,9 @@
         <v>6</v>
       </c>
       <c r="I69" s="90"/>
-      <c r="J69" s="139"/>
+      <c r="J69" s="144" t="s">
+        <v>548</v>
+      </c>
       <c r="K69" s="124"/>
       <c r="L69" s="125"/>
       <c r="M69" s="125"/>
@@ -28835,7 +29011,7 @@
       <c r="AJ69" s="175"/>
       <c r="AK69" s="37"/>
     </row>
-    <row r="70" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="205"/>
       <c r="D70" s="59"/>
@@ -28848,7 +29024,9 @@
         <v>5</v>
       </c>
       <c r="I70" s="90"/>
-      <c r="J70" s="139"/>
+      <c r="J70" s="144" t="s">
+        <v>583</v>
+      </c>
       <c r="K70" s="124"/>
       <c r="L70" s="125"/>
       <c r="M70" s="125"/>
@@ -28908,7 +29086,7 @@
       </c>
       <c r="AK70" s="37"/>
     </row>
-    <row r="71" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="205"/>
       <c r="D71" s="59"/>
@@ -28921,7 +29099,7 @@
         <v>4</v>
       </c>
       <c r="I71" s="90"/>
-      <c r="J71" s="139"/>
+      <c r="J71" s="144"/>
       <c r="K71" s="124"/>
       <c r="L71" s="125"/>
       <c r="M71" s="125"/>
@@ -28973,7 +29151,7 @@
       <c r="AJ71" s="175"/>
       <c r="AK71" s="37"/>
     </row>
-    <row r="72" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="205"/>
       <c r="D72" s="59"/>
@@ -28988,7 +29166,9 @@
       <c r="I72" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="J72" s="139"/>
+      <c r="J72" s="144" t="s">
+        <v>584</v>
+      </c>
       <c r="K72" s="124"/>
       <c r="L72" s="125"/>
       <c r="M72" s="125"/>
@@ -29040,7 +29220,7 @@
       <c r="AJ72" s="175"/>
       <c r="AK72" s="37"/>
     </row>
-    <row r="73" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="205"/>
       <c r="D73" s="59"/>
@@ -29055,8 +29235,8 @@
       <c r="I73" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="J73" s="139">
-        <v>19</v>
+      <c r="J73" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K73" s="124"/>
       <c r="L73" s="125"/>
@@ -29109,7 +29289,7 @@
       <c r="AJ73" s="175"/>
       <c r="AK73" s="37"/>
     </row>
-    <row r="74" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="205"/>
       <c r="D74" s="59"/>
@@ -29122,7 +29302,9 @@
         <v>4</v>
       </c>
       <c r="I74" s="90"/>
-      <c r="J74" s="139"/>
+      <c r="J74" s="144" t="s">
+        <v>235</v>
+      </c>
       <c r="K74" s="124"/>
       <c r="L74" s="125"/>
       <c r="M74" s="125"/>
@@ -29174,7 +29356,7 @@
       <c r="AJ74" s="175"/>
       <c r="AK74" s="37"/>
     </row>
-    <row r="75" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="205"/>
       <c r="D75" s="77"/>
@@ -29189,8 +29371,8 @@
       <c r="I75" s="91" t="s">
         <v>483</v>
       </c>
-      <c r="J75" s="145" t="s">
-        <v>548</v>
+      <c r="J75" s="146" t="s">
+        <v>563</v>
       </c>
       <c r="K75" s="127"/>
       <c r="L75" s="128"/>
@@ -29243,7 +29425,7 @@
       <c r="AJ75" s="174"/>
       <c r="AK75" s="37"/>
     </row>
-    <row r="76" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="205"/>
       <c r="D76" s="223" t="s">
@@ -29265,7 +29447,7 @@
         <v/>
       </c>
       <c r="J76" s="226" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="K76" s="216">
         <f>SUM(K77:K78)</f>
@@ -29330,7 +29512,7 @@
       </c>
       <c r="AK76" s="37"/>
     </row>
-    <row r="77" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="205"/>
       <c r="D77" s="88"/>
@@ -29395,7 +29577,7 @@
       <c r="AJ77" s="175"/>
       <c r="AK77" s="37"/>
     </row>
-    <row r="78" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="205"/>
       <c r="D78" s="84"/>
@@ -29409,7 +29591,7 @@
       </c>
       <c r="I78" s="93"/>
       <c r="J78" s="146" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="K78" s="127"/>
       <c r="L78" s="128"/>
@@ -29462,7 +29644,7 @@
       <c r="AJ78" s="174"/>
       <c r="AK78" s="37"/>
     </row>
-    <row r="79" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="205"/>
       <c r="D79" s="223" t="s">
@@ -29485,7 +29667,7 @@
 </v>
       </c>
       <c r="J79" s="226" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="K79" s="216">
         <f>SUM(K80:K84)</f>
@@ -29555,7 +29737,7 @@
       </c>
       <c r="AK79" s="37"/>
     </row>
-    <row r="80" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="205"/>
       <c r="D80" s="59"/>
@@ -29570,8 +29752,8 @@
       <c r="I80" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="J80" s="139">
-        <v>6</v>
+      <c r="J80" s="144" t="s">
+        <v>588</v>
       </c>
       <c r="K80" s="124"/>
       <c r="L80" s="125"/>
@@ -29632,7 +29814,7 @@
       </c>
       <c r="AK80" s="37"/>
     </row>
-    <row r="81" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="205"/>
       <c r="D81" s="59"/>
@@ -29645,8 +29827,8 @@
         <v>3</v>
       </c>
       <c r="I81" s="60"/>
-      <c r="J81" s="139" t="s">
-        <v>223</v>
+      <c r="J81" s="144" t="s">
+        <v>589</v>
       </c>
       <c r="K81" s="124"/>
       <c r="L81" s="125"/>
@@ -29699,7 +29881,7 @@
       <c r="AJ81" s="175"/>
       <c r="AK81" s="37"/>
     </row>
-    <row r="82" spans="1:38" s="360" customFormat="1" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" s="360" customFormat="1" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
       <c r="C82" s="205"/>
       <c r="D82" s="59"/>
@@ -29714,8 +29896,8 @@
       <c r="I82" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="J82" s="139" t="s">
-        <v>554</v>
+      <c r="J82" s="144" t="s">
+        <v>590</v>
       </c>
       <c r="K82" s="124"/>
       <c r="L82" s="125"/>
@@ -29768,7 +29950,7 @@
       <c r="AJ82" s="175"/>
       <c r="AK82" s="37"/>
     </row>
-    <row r="83" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="360"/>
       <c r="B83" s="13"/>
       <c r="C83" s="205"/>
@@ -29782,9 +29964,7 @@
         <v>8</v>
       </c>
       <c r="I83" s="60"/>
-      <c r="J83" s="139">
-        <v>11</v>
-      </c>
+      <c r="J83" s="146"/>
       <c r="K83" s="124"/>
       <c r="L83" s="125"/>
       <c r="M83" s="125"/>
@@ -29836,7 +30016,7 @@
       <c r="AJ83" s="175"/>
       <c r="AK83" s="37"/>
     </row>
-    <row r="84" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="207"/>
       <c r="D84" s="84"/>
@@ -29849,8 +30029,8 @@
         <v>8</v>
       </c>
       <c r="I84" s="91"/>
-      <c r="J84" s="143">
-        <v>11</v>
+      <c r="J84" s="404" t="s">
+        <v>566</v>
       </c>
       <c r="K84" s="133"/>
       <c r="L84" s="134"/>
@@ -29903,7 +30083,7 @@
       <c r="AJ84" s="174"/>
       <c r="AK84" s="37"/>
     </row>
-    <row r="85" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="204"/>
       <c r="D85" s="211" t="s">
@@ -29928,7 +30108,7 @@
 JSA, (GrayLog)</v>
       </c>
       <c r="J85" s="215" t="s">
-        <v>233</v>
+        <v>591</v>
       </c>
       <c r="K85" s="216">
         <f>SUM(K86:K90)</f>
@@ -29996,7 +30176,7 @@
       </c>
       <c r="AK85" s="37"/>
     </row>
-    <row r="86" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="205"/>
       <c r="D86" s="68"/>
@@ -30011,8 +30191,8 @@
       <c r="I86" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="J86" s="139">
-        <v>12</v>
+      <c r="J86" s="144" t="s">
+        <v>548</v>
       </c>
       <c r="K86" s="124"/>
       <c r="L86" s="125"/>
@@ -30067,7 +30247,7 @@
       <c r="AJ86" s="175"/>
       <c r="AK86" s="37"/>
     </row>
-    <row r="87" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="205"/>
       <c r="D87" s="68"/>
@@ -30080,8 +30260,8 @@
         <v>6</v>
       </c>
       <c r="I87" s="60"/>
-      <c r="J87" s="139">
-        <v>19</v>
+      <c r="J87" s="144" t="s">
+        <v>588</v>
       </c>
       <c r="K87" s="124"/>
       <c r="L87" s="125"/>
@@ -30134,7 +30314,7 @@
       <c r="AJ87" s="175"/>
       <c r="AK87" s="37"/>
     </row>
-    <row r="88" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="205"/>
       <c r="D88" s="68"/>
@@ -30149,8 +30329,8 @@
       <c r="I88" s="60" t="s">
         <v>486</v>
       </c>
-      <c r="J88" s="139">
-        <v>6</v>
+      <c r="J88" s="144" t="s">
+        <v>588</v>
       </c>
       <c r="K88" s="124"/>
       <c r="L88" s="125"/>
@@ -30205,7 +30385,7 @@
       <c r="AJ88" s="175"/>
       <c r="AK88" s="37"/>
     </row>
-    <row r="89" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="205"/>
       <c r="D89" s="68"/>
@@ -30220,9 +30400,7 @@
       <c r="I89" s="60" t="s">
         <v>486</v>
       </c>
-      <c r="J89" s="139">
-        <v>19</v>
-      </c>
+      <c r="J89" s="144"/>
       <c r="K89" s="124"/>
       <c r="L89" s="125"/>
       <c r="M89" s="125"/>
@@ -30276,7 +30454,7 @@
       <c r="AJ89" s="175"/>
       <c r="AK89" s="37"/>
     </row>
-    <row r="90" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="205"/>
       <c r="D90" s="55"/>
@@ -30291,8 +30469,8 @@
       <c r="I90" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="J90" s="141">
-        <v>19</v>
+      <c r="J90" s="140" t="s">
+        <v>586</v>
       </c>
       <c r="K90" s="127"/>
       <c r="L90" s="128"/>
@@ -30347,7 +30525,7 @@
       <c r="AJ90" s="186"/>
       <c r="AK90" s="37"/>
     </row>
-    <row r="91" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="206"/>
       <c r="D91" s="223" t="s">
@@ -30373,7 +30551,7 @@
 Vulnerability Management</v>
       </c>
       <c r="J91" s="226" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="K91" s="216">
         <f>SUM(K92:K99)</f>
@@ -30439,7 +30617,7 @@
       <c r="AK91" s="37"/>
       <c r="AL91" s="23"/>
     </row>
-    <row r="92" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B92" s="13"/>
       <c r="C92" s="205"/>
       <c r="D92" s="88"/>
@@ -30454,8 +30632,8 @@
       <c r="I92" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="J92" s="144">
-        <v>19</v>
+      <c r="J92" s="144" t="s">
+        <v>593</v>
       </c>
       <c r="K92" s="124"/>
       <c r="L92" s="81">
@@ -30515,7 +30693,7 @@
       <c r="AK92" s="37"/>
       <c r="AL92" s="23"/>
     </row>
-    <row r="93" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13"/>
       <c r="C93" s="205"/>
       <c r="D93" s="59"/>
@@ -30528,9 +30706,7 @@
         <v>4</v>
       </c>
       <c r="I93" s="60"/>
-      <c r="J93" s="139">
-        <v>19</v>
-      </c>
+      <c r="J93" s="144"/>
       <c r="K93" s="124"/>
       <c r="L93" s="125"/>
       <c r="M93" s="125"/>
@@ -30583,7 +30759,7 @@
       <c r="AK93" s="37"/>
       <c r="AL93" s="23"/>
     </row>
-    <row r="94" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B94" s="13"/>
       <c r="C94" s="205"/>
       <c r="D94" s="59"/>
@@ -30598,9 +30774,7 @@
       <c r="I94" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="J94" s="139">
-        <v>19</v>
-      </c>
+      <c r="J94" s="144"/>
       <c r="K94" s="124"/>
       <c r="L94" s="125"/>
       <c r="M94" s="125"/>
@@ -30653,7 +30827,7 @@
       <c r="AK94" s="37"/>
       <c r="AL94" s="23"/>
     </row>
-    <row r="95" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B95" s="13"/>
       <c r="C95" s="205"/>
       <c r="D95" s="59"/>
@@ -30668,8 +30842,8 @@
       <c r="I95" s="60" t="s">
         <v>488</v>
       </c>
-      <c r="J95" s="139" t="s">
-        <v>225</v>
+      <c r="J95" s="144" t="s">
+        <v>594</v>
       </c>
       <c r="K95" s="124"/>
       <c r="L95" s="125"/>
@@ -30723,7 +30897,7 @@
       <c r="AK95" s="37"/>
       <c r="AL95" s="23"/>
     </row>
-    <row r="96" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13"/>
       <c r="C96" s="205"/>
       <c r="D96" s="59"/>
@@ -30736,9 +30910,7 @@
         <v>6</v>
       </c>
       <c r="I96" s="60"/>
-      <c r="J96" s="139" t="s">
-        <v>225</v>
-      </c>
+      <c r="J96" s="144"/>
       <c r="K96" s="124"/>
       <c r="L96" s="125"/>
       <c r="M96" s="125"/>
@@ -30791,7 +30963,7 @@
       <c r="AK96" s="37"/>
       <c r="AL96" s="23"/>
     </row>
-    <row r="97" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
       <c r="C97" s="205"/>
       <c r="D97" s="88"/>
@@ -30806,8 +30978,8 @@
       <c r="I97" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="J97" s="144">
-        <v>19</v>
+      <c r="J97" s="144" t="s">
+        <v>565</v>
       </c>
       <c r="K97" s="124"/>
       <c r="L97" s="125"/>
@@ -30861,7 +31033,7 @@
       <c r="AK97" s="37"/>
       <c r="AL97" s="23"/>
     </row>
-    <row r="98" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B98" s="13"/>
       <c r="C98" s="205"/>
       <c r="D98" s="88"/>
@@ -30874,8 +31046,8 @@
         <v>5</v>
       </c>
       <c r="I98" s="60"/>
-      <c r="J98" s="144">
-        <v>19</v>
+      <c r="J98" s="144" t="s">
+        <v>595</v>
       </c>
       <c r="K98" s="124"/>
       <c r="L98" s="125"/>
@@ -30929,7 +31101,7 @@
       <c r="AK98" s="37"/>
       <c r="AL98" s="23"/>
     </row>
-    <row r="99" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B99" s="13"/>
       <c r="C99" s="205"/>
       <c r="D99" s="77"/>
@@ -30944,8 +31116,8 @@
       <c r="I99" s="79" t="s">
         <v>489</v>
       </c>
-      <c r="J99" s="142" t="s">
-        <v>548</v>
+      <c r="J99" s="143" t="s">
+        <v>563</v>
       </c>
       <c r="K99" s="136"/>
       <c r="L99" s="137"/>
@@ -31001,7 +31173,7 @@
       <c r="AK99" s="37"/>
       <c r="AL99" s="23"/>
     </row>
-    <row r="100" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="13"/>
       <c r="C100" s="205"/>
       <c r="D100" s="212" t="s">
@@ -31023,7 +31195,7 @@
         <v/>
       </c>
       <c r="J100" s="215" t="s">
-        <v>235</v>
+        <v>585</v>
       </c>
       <c r="K100" s="216">
         <f>SUM(K101:K105)</f>
@@ -31093,7 +31265,7 @@
       </c>
       <c r="AK100" s="37"/>
     </row>
-    <row r="101" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13"/>
       <c r="C101" s="205"/>
       <c r="D101" s="59"/>
@@ -31106,8 +31278,8 @@
         <v>8</v>
       </c>
       <c r="I101" s="60"/>
-      <c r="J101" s="139">
-        <v>6</v>
+      <c r="J101" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K101" s="124"/>
       <c r="L101" s="125"/>
@@ -31164,7 +31336,7 @@
       </c>
       <c r="AK101" s="37"/>
     </row>
-    <row r="102" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B102" s="13"/>
       <c r="C102" s="205"/>
       <c r="D102" s="59"/>
@@ -31177,9 +31349,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="60"/>
-      <c r="J102" s="139">
-        <v>6</v>
-      </c>
+      <c r="J102" s="144"/>
       <c r="K102" s="124"/>
       <c r="L102" s="125"/>
       <c r="M102" s="125"/>
@@ -31235,7 +31405,7 @@
       </c>
       <c r="AK102" s="37"/>
     </row>
-    <row r="103" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="205"/>
       <c r="D103" s="59"/>
@@ -31248,9 +31418,7 @@
         <v>4</v>
       </c>
       <c r="I103" s="60"/>
-      <c r="J103" s="139">
-        <v>6</v>
-      </c>
+      <c r="J103" s="144"/>
       <c r="K103" s="124"/>
       <c r="L103" s="125"/>
       <c r="M103" s="125"/>
@@ -31304,7 +31472,7 @@
       <c r="AJ103" s="175"/>
       <c r="AK103" s="37"/>
     </row>
-    <row r="104" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="205"/>
       <c r="D104" s="59"/>
@@ -31317,8 +31485,8 @@
         <v>4</v>
       </c>
       <c r="I104" s="60"/>
-      <c r="J104" s="139">
-        <v>6</v>
+      <c r="J104" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K104" s="124"/>
       <c r="L104" s="125"/>
@@ -31371,7 +31539,7 @@
       <c r="AJ104" s="175"/>
       <c r="AK104" s="37"/>
     </row>
-    <row r="105" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="207"/>
       <c r="D105" s="44"/>
@@ -31384,9 +31552,7 @@
         <v>4</v>
       </c>
       <c r="I105" s="40"/>
-      <c r="J105" s="147">
-        <v>6</v>
-      </c>
+      <c r="J105" s="405"/>
       <c r="K105" s="130"/>
       <c r="L105" s="131"/>
       <c r="M105" s="131"/>
@@ -31438,7 +31604,7 @@
       <c r="AJ105" s="186"/>
       <c r="AK105" s="37"/>
     </row>
-    <row r="106" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="209"/>
       <c r="D106" s="223" t="s">
@@ -31459,9 +31625,7 @@
         <f>(IF(I107="","",I107))</f>
         <v/>
       </c>
-      <c r="J106" s="226" t="s">
-        <v>236</v>
-      </c>
+      <c r="J106" s="226"/>
       <c r="K106" s="216">
         <f>SUM(K107)</f>
         <v>0</v>
@@ -31523,7 +31687,7 @@
       </c>
       <c r="AK106" s="37"/>
     </row>
-    <row r="107" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="202"/>
       <c r="D107" s="77"/>
@@ -31536,9 +31700,7 @@
         <v>8</v>
       </c>
       <c r="I107" s="79"/>
-      <c r="J107" s="142">
-        <v>19</v>
-      </c>
+      <c r="J107" s="143"/>
       <c r="K107" s="130"/>
       <c r="L107" s="131"/>
       <c r="M107" s="131"/>
@@ -31600,7 +31762,7 @@
       </c>
       <c r="AK107" s="37"/>
     </row>
-    <row r="108" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="15"/>
       <c r="C108" s="202"/>
@@ -31623,7 +31785,7 @@
         <v/>
       </c>
       <c r="J108" s="215" t="s">
-        <v>236</v>
+        <v>585</v>
       </c>
       <c r="K108" s="216">
         <f>SUM(K109:K113)</f>
@@ -31690,7 +31852,7 @@
       </c>
       <c r="AK108" s="37"/>
     </row>
-    <row r="109" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="15"/>
       <c r="C109" s="202"/>
@@ -31704,8 +31866,8 @@
         <v>8</v>
       </c>
       <c r="I109" s="60"/>
-      <c r="J109" s="139">
-        <v>19</v>
+      <c r="J109" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K109" s="124"/>
       <c r="L109" s="125"/>
@@ -31766,7 +31928,7 @@
       </c>
       <c r="AK109" s="37"/>
     </row>
-    <row r="110" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="15"/>
       <c r="C110" s="202"/>
@@ -31780,8 +31942,8 @@
         <v>8</v>
       </c>
       <c r="I110" s="60"/>
-      <c r="J110" s="139">
-        <v>19</v>
+      <c r="J110" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K110" s="124"/>
       <c r="L110" s="125"/>
@@ -31834,7 +31996,7 @@
       <c r="AJ110" s="175"/>
       <c r="AK110" s="37"/>
     </row>
-    <row r="111" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="15"/>
       <c r="C111" s="202"/>
@@ -31848,8 +32010,8 @@
         <v>6</v>
       </c>
       <c r="I111" s="60"/>
-      <c r="J111" s="139">
-        <v>19</v>
+      <c r="J111" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K111" s="124"/>
       <c r="L111" s="125"/>
@@ -31902,7 +32064,7 @@
       <c r="AJ111" s="175"/>
       <c r="AK111" s="37"/>
     </row>
-    <row r="112" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="15"/>
       <c r="C112" s="202"/>
@@ -31916,8 +32078,8 @@
         <v>5</v>
       </c>
       <c r="I112" s="60"/>
-      <c r="J112" s="139">
-        <v>19</v>
+      <c r="J112" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K112" s="124"/>
       <c r="L112" s="125"/>
@@ -31970,7 +32132,7 @@
       <c r="AJ112" s="175"/>
       <c r="AK112" s="37"/>
     </row>
-    <row r="113" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="15"/>
       <c r="C113" s="202"/>
@@ -31984,9 +32146,7 @@
         <v>3</v>
       </c>
       <c r="I113" s="40"/>
-      <c r="J113" s="147">
-        <v>19</v>
-      </c>
+      <c r="J113" s="405"/>
       <c r="K113" s="130"/>
       <c r="L113" s="131"/>
       <c r="M113" s="131"/>
@@ -32038,7 +32198,7 @@
       <c r="AJ113" s="186"/>
       <c r="AK113" s="37"/>
     </row>
-    <row r="114" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="15"/>
       <c r="C114" s="202"/>
@@ -32061,7 +32221,7 @@
         <v/>
       </c>
       <c r="J114" s="226" t="s">
-        <v>236</v>
+        <v>596</v>
       </c>
       <c r="K114" s="216">
         <f>SUM(K115:K119)</f>
@@ -32124,7 +32284,7 @@
       </c>
       <c r="AK114" s="37"/>
     </row>
-    <row r="115" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="15"/>
       <c r="C115" s="202"/>
@@ -32138,8 +32298,8 @@
         <v>8</v>
       </c>
       <c r="I115" s="60"/>
-      <c r="J115" s="139">
-        <v>19</v>
+      <c r="J115" s="144" t="s">
+        <v>597</v>
       </c>
       <c r="K115" s="124"/>
       <c r="L115" s="125"/>
@@ -32192,7 +32352,7 @@
       <c r="AJ115" s="175"/>
       <c r="AK115" s="37"/>
     </row>
-    <row r="116" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="15"/>
       <c r="C116" s="202"/>
@@ -32206,9 +32366,7 @@
         <v>8</v>
       </c>
       <c r="I116" s="60"/>
-      <c r="J116" s="139">
-        <v>19</v>
-      </c>
+      <c r="J116" s="144"/>
       <c r="K116" s="124"/>
       <c r="L116" s="125"/>
       <c r="M116" s="125"/>
@@ -32260,7 +32418,7 @@
       <c r="AJ116" s="175"/>
       <c r="AK116" s="37"/>
     </row>
-    <row r="117" spans="1:37" s="360" customFormat="1" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" s="360" customFormat="1" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="15"/>
       <c r="C117" s="202"/>
@@ -32276,9 +32434,7 @@
       <c r="I117" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="J117" s="139">
-        <v>19</v>
-      </c>
+      <c r="J117" s="144"/>
       <c r="K117" s="82">
         <v>40000</v>
       </c>
@@ -32340,7 +32496,7 @@
       <c r="AJ117" s="175"/>
       <c r="AK117" s="37"/>
     </row>
-    <row r="118" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="15"/>
       <c r="C118" s="202"/>
@@ -32354,8 +32510,8 @@
         <v>6</v>
       </c>
       <c r="I118" s="60"/>
-      <c r="J118" s="139">
-        <v>19</v>
+      <c r="J118" s="146" t="s">
+        <v>585</v>
       </c>
       <c r="K118" s="82"/>
       <c r="L118" s="125"/>
@@ -32408,7 +32564,7 @@
       <c r="AJ118" s="175"/>
       <c r="AK118" s="37"/>
     </row>
-    <row r="119" spans="1:37" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="15"/>
       <c r="C119" s="202"/>
@@ -32422,8 +32578,8 @@
         <v>6</v>
       </c>
       <c r="I119" s="91"/>
-      <c r="J119" s="143">
-        <v>19</v>
+      <c r="J119" s="404" t="s">
+        <v>577</v>
       </c>
       <c r="K119" s="133"/>
       <c r="L119" s="134"/>
@@ -32476,7 +32632,7 @@
       <c r="AJ119" s="186"/>
       <c r="AK119" s="37"/>
     </row>
-    <row r="120" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="15"/>
       <c r="C120" s="202"/>
@@ -32498,9 +32654,7 @@
         <f>(IF(I121="","",I121&amp;CHAR(10))&amp;(IF(I122="","",I122&amp;CHAR(10))&amp;IF(I123="","",I123)))</f>
         <v/>
       </c>
-      <c r="J120" s="226" t="s">
-        <v>559</v>
-      </c>
+      <c r="J120" s="226"/>
       <c r="K120" s="216">
         <f>SUM(K121:K123)</f>
         <v>0</v>
@@ -32564,7 +32718,7 @@
       </c>
       <c r="AK120" s="37"/>
     </row>
-    <row r="121" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="15"/>
       <c r="C121" s="202"/>
@@ -32578,9 +32732,7 @@
         <v>8</v>
       </c>
       <c r="I121" s="60"/>
-      <c r="J121" s="139">
-        <v>19</v>
-      </c>
+      <c r="J121" s="144"/>
       <c r="K121" s="124"/>
       <c r="L121" s="125"/>
       <c r="M121" s="125"/>
@@ -32632,7 +32784,7 @@
       <c r="AJ121" s="175"/>
       <c r="AK121" s="37"/>
     </row>
-    <row r="122" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="15"/>
       <c r="C122" s="202"/>
@@ -32646,9 +32798,7 @@
         <v>6</v>
       </c>
       <c r="I122" s="60"/>
-      <c r="J122" s="139">
-        <v>19</v>
-      </c>
+      <c r="J122" s="144"/>
       <c r="K122" s="124"/>
       <c r="L122" s="125"/>
       <c r="M122" s="125"/>
@@ -32700,7 +32850,7 @@
       <c r="AJ122" s="175"/>
       <c r="AK122" s="37"/>
     </row>
-    <row r="123" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="15"/>
       <c r="C123" s="202"/>
@@ -32714,9 +32864,7 @@
         <v>6</v>
       </c>
       <c r="I123" s="79"/>
-      <c r="J123" s="143" t="s">
-        <v>548</v>
-      </c>
+      <c r="J123" s="143"/>
       <c r="K123" s="130"/>
       <c r="L123" s="131"/>
       <c r="M123" s="131"/>
@@ -32778,7 +32926,7 @@
       </c>
       <c r="AK123" s="37"/>
     </row>
-    <row r="124" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13"/>
       <c r="C124" s="202"/>
       <c r="D124" s="223" t="s">
@@ -32800,7 +32948,7 @@
         <v/>
       </c>
       <c r="J124" s="226" t="s">
-        <v>236</v>
+        <v>585</v>
       </c>
       <c r="K124" s="216">
         <f>SUM(K125:K126)</f>
@@ -32863,7 +33011,7 @@
       </c>
       <c r="AK124" s="37"/>
     </row>
-    <row r="125" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B125" s="13"/>
       <c r="C125" s="202"/>
       <c r="D125" s="88"/>
@@ -32876,8 +33024,8 @@
         <v>4</v>
       </c>
       <c r="I125" s="92"/>
-      <c r="J125" s="144">
-        <v>19</v>
+      <c r="J125" s="144" t="s">
+        <v>585</v>
       </c>
       <c r="K125" s="124"/>
       <c r="L125" s="125"/>
@@ -32930,7 +33078,7 @@
       <c r="AJ125" s="175"/>
       <c r="AK125" s="37"/>
     </row>
-    <row r="126" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B126" s="13"/>
       <c r="C126" s="203"/>
       <c r="D126" s="84"/>
@@ -32943,8 +33091,8 @@
         <v>4</v>
       </c>
       <c r="I126" s="93"/>
-      <c r="J126" s="146">
-        <v>19</v>
+      <c r="J126" s="146" t="s">
+        <v>585</v>
       </c>
       <c r="K126" s="127"/>
       <c r="L126" s="128"/>
@@ -33007,7 +33155,7 @@
       </c>
       <c r="AK126" s="37"/>
     </row>
-    <row r="127" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14"/>
       <c r="B127" s="13"/>
       <c r="C127" s="200"/>
@@ -33029,9 +33177,7 @@
         <f>(IF(I128="","",I128))</f>
         <v/>
       </c>
-      <c r="J127" s="226" t="s">
-        <v>236</v>
-      </c>
+      <c r="J127" s="226"/>
       <c r="K127" s="216">
         <f>SUM(K128)</f>
         <v>0</v>
@@ -33095,7 +33241,7 @@
       </c>
       <c r="AK127" s="37"/>
     </row>
-    <row r="128" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="13"/>
       <c r="C128" s="201"/>
@@ -33109,9 +33255,7 @@
         <v>5</v>
       </c>
       <c r="I128" s="79"/>
-      <c r="J128" s="142">
-        <v>19</v>
-      </c>
+      <c r="J128" s="143"/>
       <c r="K128" s="130"/>
       <c r="L128" s="131"/>
       <c r="M128" s="131"/>
@@ -33165,7 +33309,7 @@
       <c r="AJ128" s="186"/>
       <c r="AK128" s="37"/>
     </row>
-    <row r="129" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="13"/>
       <c r="C129" s="201"/>
@@ -33187,9 +33331,7 @@
         <f>(IF(I130="","",I130&amp;CHAR(10))&amp;(IF(I131="","",I131)))</f>
         <v/>
       </c>
-      <c r="J129" s="226" t="s">
-        <v>236</v>
-      </c>
+      <c r="J129" s="226"/>
       <c r="K129" s="216">
         <f>SUM(K130:K131)</f>
         <v>5000</v>
@@ -33251,7 +33393,7 @@
       </c>
       <c r="AK129" s="37"/>
     </row>
-    <row r="130" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="13"/>
       <c r="C130" s="201"/>
@@ -33265,9 +33407,7 @@
         <v>4</v>
       </c>
       <c r="I130" s="92"/>
-      <c r="J130" s="144">
-        <v>19</v>
-      </c>
+      <c r="J130" s="144"/>
       <c r="K130" s="124"/>
       <c r="L130" s="125"/>
       <c r="M130" s="125"/>
@@ -33319,7 +33459,7 @@
       <c r="AJ130" s="175"/>
       <c r="AK130" s="37"/>
     </row>
-    <row r="131" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="13"/>
       <c r="C131" s="201"/>
@@ -33333,9 +33473,7 @@
         <v>4</v>
       </c>
       <c r="I131" s="93"/>
-      <c r="J131" s="146">
-        <v>19</v>
-      </c>
+      <c r="J131" s="146"/>
       <c r="K131" s="262">
         <v>5000</v>
       </c>
@@ -33389,7 +33527,7 @@
       <c r="AJ131" s="186"/>
       <c r="AK131" s="37"/>
     </row>
-    <row r="132" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="13"/>
       <c r="C132" s="201"/>
@@ -33411,9 +33549,7 @@
         <f>(IF(I133="","",I133&amp;CHAR(10))&amp;(IF(I134="","",I134&amp;CHAR(10))&amp;IF(I135="","",I135)))</f>
         <v/>
       </c>
-      <c r="J132" s="226" t="s">
-        <v>236</v>
-      </c>
+      <c r="J132" s="226"/>
       <c r="K132" s="216">
         <f>SUM(K133:K135)</f>
         <v>0</v>
@@ -33475,7 +33611,7 @@
       </c>
       <c r="AK132" s="37"/>
     </row>
-    <row r="133" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="13"/>
       <c r="C133" s="201"/>
@@ -33489,9 +33625,7 @@
         <v>4</v>
       </c>
       <c r="I133" s="60"/>
-      <c r="J133" s="139">
-        <v>19</v>
-      </c>
+      <c r="J133" s="144"/>
       <c r="K133" s="124"/>
       <c r="L133" s="125"/>
       <c r="M133" s="125"/>
@@ -33543,7 +33677,7 @@
       <c r="AJ133" s="175"/>
       <c r="AK133" s="37"/>
     </row>
-    <row r="134" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="13"/>
       <c r="C134" s="201"/>
@@ -33557,9 +33691,7 @@
         <v>3</v>
       </c>
       <c r="I134" s="60"/>
-      <c r="J134" s="139">
-        <v>19</v>
-      </c>
+      <c r="J134" s="144"/>
       <c r="K134" s="124"/>
       <c r="L134" s="125"/>
       <c r="M134" s="125"/>
@@ -33611,7 +33743,7 @@
       <c r="AJ134" s="175"/>
       <c r="AK134" s="37"/>
     </row>
-    <row r="135" spans="1:37" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14"/>
       <c r="B135" s="13"/>
       <c r="C135" s="208"/>
@@ -33625,9 +33757,7 @@
         <v>2</v>
       </c>
       <c r="I135" s="79"/>
-      <c r="J135" s="143">
-        <v>19</v>
-      </c>
+      <c r="J135" s="143"/>
       <c r="K135" s="130"/>
       <c r="L135" s="131"/>
       <c r="M135" s="131"/>
@@ -33679,7 +33809,7 @@
       <c r="AJ135" s="186"/>
       <c r="AK135" s="37"/>
     </row>
-    <row r="136" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="13"/>
       <c r="C136" s="10"/>
@@ -33718,7 +33848,7 @@
       <c r="AJ136" s="210"/>
       <c r="AK136" s="14"/>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="13"/>
       <c r="C137" s="16"/>
@@ -33766,7 +33896,7 @@
       <c r="AJ137" s="16"/>
       <c r="AK137" s="14"/>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="13"/>
       <c r="C138" s="16"/>
@@ -33812,7 +33942,7 @@
       <c r="AJ138" s="16"/>
       <c r="AK138" s="14"/>
     </row>
-    <row r="139" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="19"/>
       <c r="C139" s="20"/>
       <c r="D139" s="20"/>
@@ -33850,66 +33980,66 @@
       <c r="AJ139" s="20"/>
       <c r="AK139" s="22"/>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="F141" s="4"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="F142" s="18"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="389"/>
       <c r="D151" s="390"/>
       <c r="E151" s="258"/>
       <c r="F151" s="364"/>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="389"/>
       <c r="D152" s="390"/>
       <c r="E152" s="258"/>
       <c r="F152" s="364"/>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="389"/>
       <c r="D153" s="390"/>
       <c r="E153" s="258"/>
       <c r="F153" s="364"/>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="389"/>
       <c r="D154" s="390"/>
       <c r="E154" s="258"/>
       <c r="F154" s="364"/>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D155" s="390"/>
       <c r="E155" s="258"/>
       <c r="F155" s="364"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}" scale="55" showGridLines="0" fitToPage="1" hiddenColumns="1">
-      <selection activeCell="AB102" sqref="AB102"/>
+    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}" scale="70" showGridLines="0" fitToPage="1" hiddenColumns="1" topLeftCell="A29">
+      <selection activeCell="I45" sqref="I45"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="149" scale="20" orientation="landscape" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}" scale="70" showGridLines="0" fitToPage="1" hiddenColumns="1" topLeftCell="J1">
+      <selection activeCell="AL6" sqref="AL6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="149" scale="20" orientation="landscape" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{FE135D45-FEC9-45C5-B916-E812BDE860C8}" scale="70" showGridLines="0" fitToPage="1" hiddenColumns="1" topLeftCell="B97">
       <selection activeCell="AZ71" sqref="AZ71"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="149" scale="20" orientation="landscape" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}" scale="70" showGridLines="0" fitToPage="1" hiddenColumns="1" topLeftCell="J1">
-      <selection activeCell="AL6" sqref="AL6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="149" scale="20" orientation="landscape" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}" scale="70" showGridLines="0" fitToPage="1" hiddenColumns="1" topLeftCell="A29">
-      <selection activeCell="I45" sqref="I45"/>
+    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}" scale="55" showGridLines="0" fitToPage="1" hiddenColumns="1">
+      <selection activeCell="AB102" sqref="AB102"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="149" scale="20" orientation="landscape" r:id="rId4"/>
     </customSheetView>
@@ -34426,13 +34556,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}">
+    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -34440,11 +34574,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}">
-      <selection activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}">
+    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -34462,17 +34592,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="109" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="109" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="109" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="109" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="109" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="109" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="109" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="109" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="53" t="s">
         <v>246</v>
       </c>
@@ -34499,7 +34629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="109" t="s">
         <v>247</v>
       </c>
@@ -34526,7 +34656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="109" t="s">
         <v>262</v>
       </c>
@@ -34553,7 +34683,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="109" t="s">
         <v>259</v>
       </c>
@@ -34580,7 +34710,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="109" t="s">
         <v>249</v>
       </c>
@@ -34607,7 +34737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="109" t="s">
         <v>253</v>
       </c>
@@ -34630,7 +34760,7 @@
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="109" t="s">
         <v>268</v>
       </c>
@@ -34643,15 +34773,19 @@
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}">
+    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}">
+      <selection activeCell="B5" sqref="B5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -34659,11 +34793,7 @@
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}">
-      <selection activeCell="B5" sqref="B5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}">
+    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -34680,15 +34810,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="42" customWidth="1"/>
-    <col min="5" max="6" width="50.7109375" style="109" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="42" customWidth="1"/>
+    <col min="5" max="6" width="50.6640625" style="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D2" s="109" t="s">
         <v>194</v>
       </c>
@@ -34699,7 +34829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B3" s="110" t="s">
         <v>195</v>
       </c>
@@ -34716,7 +34846,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B4" s="112" t="s">
         <v>200</v>
       </c>
@@ -34733,7 +34863,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B5" s="112" t="s">
         <v>205</v>
       </c>
@@ -34750,7 +34880,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B6" s="112" t="s">
         <v>210</v>
       </c>
@@ -34767,7 +34897,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="112" t="s">
         <v>215</v>
       </c>
@@ -34784,12 +34914,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D9" s="109" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="110" t="s">
         <v>195</v>
       </c>
@@ -34802,7 +34932,7 @@
       <c r="E10" s="111"/>
       <c r="F10" s="111"/>
     </row>
-    <row r="11" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="112" t="s">
         <v>200</v>
       </c>
@@ -34815,7 +34945,7 @@
       <c r="E11" s="111"/>
       <c r="F11" s="111"/>
     </row>
-    <row r="12" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="112" t="s">
         <v>205</v>
       </c>
@@ -34828,7 +34958,7 @@
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="112" t="s">
         <v>210</v>
       </c>
@@ -34841,7 +34971,7 @@
       <c r="E13" s="111"/>
       <c r="F13" s="111"/>
     </row>
-    <row r="14" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="112" t="s">
         <v>215</v>
       </c>
@@ -34854,13 +34984,17 @@
       <c r="E14" s="111"/>
       <c r="F14" s="111"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="109"/>
       <c r="C15" s="109"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}" topLeftCell="A5">
+    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}" topLeftCell="A5">
+      <selection activeCell="B10" sqref="B10:D14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}" topLeftCell="A5">
       <selection activeCell="B10" sqref="B10:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -34868,11 +35002,7 @@
       <selection activeCell="B10" sqref="B10:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D9A6376B-4D17-4AB2-BDD1-FE47E0B3F75E}" topLeftCell="A5">
-      <selection activeCell="B10" sqref="B10:D14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{0D0BAA12-0EA8-4748-A47B-93A9E418BF0D}" topLeftCell="A5">
+    <customSheetView guid="{F7528A91-99D0-45DA-9B27-A32F6937E95D}" topLeftCell="A5">
       <selection activeCell="B10" sqref="B10:D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
